--- a/4_HealthEconomics/Inputs/provider_cost_inputs.xlsx
+++ b/4_HealthEconomics/Inputs/provider_cost_inputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/orms0952_ox_ac_uk/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xihangc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73B59DF3-A302-4A43-9E1F-2FA871AD39C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1896BA-EE06-4767-807A-46229FF2D070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="798" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="798" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="6" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="241">
   <si>
     <t>specialty_source_value</t>
   </si>
@@ -774,7 +774,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -847,20 +847,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1169,1947 +1168,1947 @@
   <dimension ref="A1:C199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.54296875" style="7"/>
-    <col min="3" max="3" width="12" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.54296875" style="7"/>
+    <col min="1" max="1" width="47.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" style="6"/>
+    <col min="3" max="3" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.5546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8">
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
         <f>(46*(63/39))/60*15.5</f>
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7">
-        <v>0</v>
-      </c>
-      <c r="C8" s="8">
+      <c r="B8" s="6">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
         <f>(46*(63/39))/60*15.5</f>
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="B9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="B10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="7">
-        <v>1</v>
-      </c>
-      <c r="C11" s="8">
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="B12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="7">
-        <v>0</v>
-      </c>
-      <c r="C13" s="8">
+      <c r="B13" s="6">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7">
         <f>(46*(63/39))/60*15.5</f>
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+      <c r="B14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+      <c r="B15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="7">
-        <v>0</v>
-      </c>
-      <c r="C16" s="8">
+      <c r="B16" s="6">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7">
         <f>(46*(63/39))/60*15.5</f>
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
+      <c r="B17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="7">
-        <v>1</v>
-      </c>
-      <c r="C18" s="8">
+      <c r="B18" s="6">
+        <v>1</v>
+      </c>
+      <c r="C18" s="7">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="7">
-        <v>1</v>
-      </c>
-      <c r="C19" s="8">
+      <c r="B19" s="6">
+        <v>1</v>
+      </c>
+      <c r="C19" s="7">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
+      <c r="B20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="7">
-        <v>1</v>
-      </c>
-      <c r="C21" s="8">
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+      <c r="C21" s="7">
         <f>143/2</f>
         <v>71.5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
+      <c r="B22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
+      <c r="B23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="7">
-        <v>1</v>
-      </c>
-      <c r="C24" s="8">
+      <c r="B24" s="6">
+        <v>1</v>
+      </c>
+      <c r="C24" s="7">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="7">
-        <v>0</v>
-      </c>
-      <c r="C25" s="8">
+      <c r="B25" s="6">
+        <v>0</v>
+      </c>
+      <c r="C25" s="7">
         <f>(46*(63/39))/60*15.5</f>
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="7" t="s">
+      <c r="B26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="7">
-        <v>0</v>
-      </c>
-      <c r="C27" s="8">
+      <c r="B27" s="6">
+        <v>0</v>
+      </c>
+      <c r="C27" s="7">
         <f>(46*(63/39))/60*15.5</f>
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="7" t="s">
+      <c r="B28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="7" t="s">
+      <c r="B29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="7">
-        <v>0</v>
-      </c>
-      <c r="C30" s="8">
+      <c r="B30" s="6">
+        <v>0</v>
+      </c>
+      <c r="C30" s="7">
         <f>(46*(63/39))/60*15.5</f>
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="7">
-        <v>1</v>
-      </c>
-      <c r="C31" s="8">
+      <c r="B31" s="6">
+        <v>1</v>
+      </c>
+      <c r="C31" s="7">
         <f>(46*(63/39))/60*15.5</f>
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="7" t="s">
+      <c r="B32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="7">
-        <v>1</v>
-      </c>
-      <c r="C33" s="8">
+      <c r="B33" s="6">
+        <v>1</v>
+      </c>
+      <c r="C33" s="7">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="7" t="s">
+      <c r="B34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="7" t="s">
+      <c r="B35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="7" t="s">
+      <c r="B36" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="7" t="s">
+      <c r="B37" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="7" t="s">
+      <c r="B38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="7" t="s">
+      <c r="B39" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="7">
-        <v>1</v>
-      </c>
-      <c r="C40" s="8">
+      <c r="B40" s="6">
+        <v>1</v>
+      </c>
+      <c r="C40" s="7">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="7" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="7" t="s">
+      <c r="B41" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="7" t="s">
+      <c r="B42" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="7">
-        <v>1</v>
-      </c>
-      <c r="C43" s="8">
+      <c r="B43" s="6">
+        <v>1</v>
+      </c>
+      <c r="C43" s="7">
         <f>(57*(89/49))/60*15.5</f>
         <v>26.74540816326531</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="7" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="7">
-        <v>1</v>
-      </c>
-      <c r="C44" s="7">
+      <c r="B44" s="6">
+        <v>1</v>
+      </c>
+      <c r="C44" s="6">
         <f>57/2</f>
         <v>28.5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="7" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="7" t="s">
+      <c r="B45" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="7">
-        <v>1</v>
-      </c>
-      <c r="C46" s="7">
+      <c r="B46" s="6">
+        <v>1</v>
+      </c>
+      <c r="C46" s="6">
         <f>ROUND(37/6,1)</f>
         <v>6.2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="7" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="7">
-        <v>1</v>
-      </c>
-      <c r="C47" s="8">
+      <c r="B47" s="6">
+        <v>1</v>
+      </c>
+      <c r="C47" s="7">
         <f>(57*(89/49))/60*15.5</f>
         <v>26.74540816326531</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="7" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" s="7">
-        <v>1</v>
-      </c>
-      <c r="C49" s="7">
+      <c r="B48" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="6">
+        <v>1</v>
+      </c>
+      <c r="C49" s="6">
         <f>46/2</f>
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="7" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="7" t="s">
+      <c r="B50" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="7" t="s">
+      <c r="B51" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="7" t="s">
+      <c r="B52" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="7">
-        <v>0</v>
-      </c>
-      <c r="C53" s="8">
+      <c r="B53" s="6">
+        <v>0</v>
+      </c>
+      <c r="C53" s="7">
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="7" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="7">
-        <v>1</v>
-      </c>
-      <c r="C54" s="8">
+      <c r="B54" s="6">
+        <v>1</v>
+      </c>
+      <c r="C54" s="7">
         <f>119/60*15.5</f>
         <v>30.741666666666667</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="7" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="7">
-        <v>1</v>
-      </c>
-      <c r="C55" s="8">
+      <c r="B55" s="6">
+        <v>1</v>
+      </c>
+      <c r="C55" s="7">
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="7" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="7">
-        <v>1</v>
-      </c>
-      <c r="C56" s="8">
+      <c r="B56" s="6">
+        <v>1</v>
+      </c>
+      <c r="C56" s="7">
         <f>119/60*15.5</f>
         <v>30.741666666666667</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="7" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="7">
-        <v>1</v>
-      </c>
-      <c r="C57" s="8">
+      <c r="B57" s="6">
+        <v>1</v>
+      </c>
+      <c r="C57" s="7">
         <f>119/60*15.5</f>
         <v>30.741666666666667</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="7" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="7" t="s">
+      <c r="B58" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="7">
-        <v>1</v>
-      </c>
-      <c r="C59" s="8">
+      <c r="B59" s="6">
+        <v>1</v>
+      </c>
+      <c r="C59" s="7">
         <f>119/60*15.5</f>
         <v>30.741666666666667</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="7" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="7" t="s">
+      <c r="B60" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="7" t="s">
+      <c r="B61" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="7" t="s">
+      <c r="B62" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="7">
-        <v>1</v>
-      </c>
-      <c r="C63" s="8">
+      <c r="B63" s="6">
+        <v>1</v>
+      </c>
+      <c r="C63" s="7">
         <f>119/60*15.5</f>
         <v>30.741666666666667</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="7" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="7">
-        <v>1</v>
-      </c>
-      <c r="C64" s="8">
+      <c r="B64" s="6">
+        <v>1</v>
+      </c>
+      <c r="C64" s="7">
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="7" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="7">
-        <v>1</v>
-      </c>
-      <c r="C65" s="8">
+      <c r="B65" s="6">
+        <v>1</v>
+      </c>
+      <c r="C65" s="7">
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="7" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B67" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="7" t="s">
+      <c r="B66" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B67" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="7" t="s">
+      <c r="B68" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="7" t="s">
+      <c r="B69" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="7" t="s">
+      <c r="B70" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="7">
-        <v>1</v>
-      </c>
-      <c r="C71" s="8">
+      <c r="B71" s="6">
+        <v>1</v>
+      </c>
+      <c r="C71" s="7">
         <f>119/60*15.5</f>
         <v>30.741666666666667</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="7" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="7">
-        <v>1</v>
-      </c>
-      <c r="C72" s="8">
+      <c r="B72" s="6">
+        <v>1</v>
+      </c>
+      <c r="C72" s="7">
         <f>(57*(89/49))/60*15.5</f>
         <v>26.74540816326531</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="7" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="7">
-        <v>1</v>
-      </c>
-      <c r="C73" s="8">
+      <c r="B73" s="6">
+        <v>1</v>
+      </c>
+      <c r="C73" s="7">
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="7" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="7" t="s">
+      <c r="B74" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="7" t="s">
+      <c r="B75" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="7" t="s">
+      <c r="B76" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="7" t="s">
+      <c r="B77" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="7">
-        <v>1</v>
-      </c>
-      <c r="C78" s="8">
+      <c r="B78" s="6">
+        <v>1</v>
+      </c>
+      <c r="C78" s="7">
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="7" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="7" t="s">
+      <c r="B79" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="7" t="s">
+      <c r="B80" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="7">
-        <v>1</v>
-      </c>
-      <c r="C81" s="8">
+      <c r="B81" s="6">
+        <v>1</v>
+      </c>
+      <c r="C81" s="7">
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="7" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="7" t="s">
+      <c r="B82" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="7">
-        <v>1</v>
-      </c>
-      <c r="C83" s="8">
+      <c r="B83" s="6">
+        <v>1</v>
+      </c>
+      <c r="C83" s="7">
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="7" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="7">
-        <v>1</v>
-      </c>
-      <c r="C84" s="8">
+      <c r="B84" s="6">
+        <v>1</v>
+      </c>
+      <c r="C84" s="7">
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" s="7" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="7">
-        <v>1</v>
-      </c>
-      <c r="C85" s="7">
+      <c r="B85" s="6">
+        <v>1</v>
+      </c>
+      <c r="C85" s="6">
         <f>46/4</f>
         <v>11.5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" s="7" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="7">
-        <v>1</v>
-      </c>
-      <c r="C86" s="8">
+      <c r="B86" s="6">
+        <v>1</v>
+      </c>
+      <c r="C86" s="7">
         <f>143/2</f>
         <v>71.5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" s="7" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="7">
-        <v>1</v>
-      </c>
-      <c r="C87" s="8">
+      <c r="B87" s="6">
+        <v>1</v>
+      </c>
+      <c r="C87" s="7">
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" s="7" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="7">
-        <v>1</v>
-      </c>
-      <c r="C88" s="8">
+      <c r="B88" s="6">
+        <v>1</v>
+      </c>
+      <c r="C88" s="7">
         <f>(46*(63/39))/60*15.5</f>
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="7" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B89" s="7">
-        <v>1</v>
-      </c>
-      <c r="C89" s="8">
+      <c r="B89" s="6">
+        <v>1</v>
+      </c>
+      <c r="C89" s="7">
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" s="7" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B90" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" s="7" t="s">
+      <c r="B90" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B91" s="7">
-        <v>1</v>
-      </c>
-      <c r="C91" s="8">
+      <c r="B91" s="6">
+        <v>1</v>
+      </c>
+      <c r="C91" s="7">
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" s="7" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B92" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" s="7" t="s">
+      <c r="B92" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B93" s="7">
-        <v>1</v>
-      </c>
-      <c r="C93" s="8">
+      <c r="B93" s="6">
+        <v>1</v>
+      </c>
+      <c r="C93" s="7">
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" s="7" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B94" s="7">
-        <v>1</v>
-      </c>
-      <c r="C94" s="8">
+      <c r="B94" s="6">
+        <v>1</v>
+      </c>
+      <c r="C94" s="7">
         <v>55</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" s="7" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B95" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" s="7" t="s">
+      <c r="B95" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B96" s="7">
-        <v>1</v>
-      </c>
-      <c r="C96" s="8">
+      <c r="B96" s="6">
+        <v>1</v>
+      </c>
+      <c r="C96" s="7">
         <v>55</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" s="7" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B97" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" s="7" t="s">
+      <c r="B97" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B98" s="7">
-        <v>1</v>
-      </c>
-      <c r="C98" s="7">
+      <c r="B98" s="6">
+        <v>1</v>
+      </c>
+      <c r="C98" s="6">
         <f>+ROUND(37/6,1)</f>
         <v>6.2</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" s="7" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B99" s="7">
-        <v>1</v>
-      </c>
-      <c r="C99" s="8">
+      <c r="B99" s="6">
+        <v>1</v>
+      </c>
+      <c r="C99" s="7">
         <v>43</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" s="7" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B100" s="7">
-        <v>1</v>
-      </c>
-      <c r="C100" s="7">
+      <c r="B100" s="6">
+        <v>1</v>
+      </c>
+      <c r="C100" s="6">
         <f>107/4</f>
         <v>26.75</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" s="7" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B101" s="7">
-        <v>1</v>
-      </c>
-      <c r="C101" s="8">
+      <c r="B101" s="6">
+        <v>1</v>
+      </c>
+      <c r="C101" s="7">
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102" s="7" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B102" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A103" s="7" t="s">
+      <c r="B102" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B103" s="7">
-        <v>1</v>
-      </c>
-      <c r="C103" s="8">
+      <c r="B103" s="6">
+        <v>1</v>
+      </c>
+      <c r="C103" s="7">
         <v>55</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" s="7" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B104" s="7">
-        <v>1</v>
-      </c>
-      <c r="C104" s="8">
+      <c r="B104" s="6">
+        <v>1</v>
+      </c>
+      <c r="C104" s="7">
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A105" s="7" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B105" s="7">
-        <v>1</v>
-      </c>
-      <c r="C105" s="8">
+      <c r="B105" s="6">
+        <v>1</v>
+      </c>
+      <c r="C105" s="7">
         <v>43</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A106" s="7" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B106" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A107" s="7" t="s">
+      <c r="B106" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B107" s="7">
-        <v>1</v>
-      </c>
-      <c r="C107" s="7">
+      <c r="B107" s="6">
+        <v>1</v>
+      </c>
+      <c r="C107" s="6">
         <f>+ROUND(37/6,1)</f>
         <v>6.2</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A108" s="7" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B108" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A109" s="7" t="s">
+      <c r="B108" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B109" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" s="7" t="s">
+      <c r="B109" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B110" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A111" s="7" t="s">
+      <c r="B110" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B111" s="7">
-        <v>1</v>
-      </c>
-      <c r="C111" s="8">
+      <c r="B111" s="6">
+        <v>1</v>
+      </c>
+      <c r="C111" s="7">
         <v>55</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A112" s="7" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B112" s="7">
-        <v>1</v>
-      </c>
-      <c r="C112" s="8">
+      <c r="B112" s="6">
+        <v>1</v>
+      </c>
+      <c r="C112" s="7">
         <v>36</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" s="7" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B113" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A114" s="7" t="s">
+      <c r="B113" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B114" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" s="7" t="s">
+      <c r="B114" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B115" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A116" s="7" t="s">
+      <c r="B115" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B116" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" s="7" t="s">
+      <c r="B116" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B117" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A118" s="7" t="s">
+      <c r="B117" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B118" s="7">
-        <v>1</v>
-      </c>
-      <c r="C118" s="8">
+      <c r="B118" s="6">
+        <v>1</v>
+      </c>
+      <c r="C118" s="7">
         <f>143/2</f>
         <v>71.5</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A119" s="7" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B119" s="7">
-        <v>1</v>
-      </c>
-      <c r="C119" s="8">
+      <c r="B119" s="6">
+        <v>1</v>
+      </c>
+      <c r="C119" s="7">
         <v>55</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A120" s="7" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B120" s="7">
-        <v>1</v>
-      </c>
-      <c r="C120" s="8">
+      <c r="B120" s="6">
+        <v>1</v>
+      </c>
+      <c r="C120" s="7">
         <f>143/2</f>
         <v>71.5</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A121" s="7" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B121" s="7">
-        <v>1</v>
-      </c>
-      <c r="C121" s="8">
+      <c r="B121" s="6">
+        <v>1</v>
+      </c>
+      <c r="C121" s="7">
         <v>41</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A122" s="7" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B122" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A123" s="7" t="s">
+      <c r="B122" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B123" s="7">
-        <v>1</v>
-      </c>
-      <c r="C123" s="7">
+      <c r="B123" s="6">
+        <v>1</v>
+      </c>
+      <c r="C123" s="6">
         <f>100/2</f>
         <v>50</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A124" s="7" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B124" s="7">
-        <v>1</v>
-      </c>
-      <c r="C124" s="8">
+      <c r="B124" s="6">
+        <v>1</v>
+      </c>
+      <c r="C124" s="7">
         <v>41</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A125" s="7" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B125" s="7">
-        <v>1</v>
-      </c>
-      <c r="C125" s="7">
+      <c r="B125" s="6">
+        <v>1</v>
+      </c>
+      <c r="C125" s="6">
         <v>107.26</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A126" s="7" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B126" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A127" s="7" t="s">
+      <c r="B126" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B127" s="7">
-        <v>1</v>
-      </c>
-      <c r="C127" s="8">
+      <c r="B127" s="6">
+        <v>1</v>
+      </c>
+      <c r="C127" s="7">
         <f>(46*(63/39))/60*15.5</f>
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A128" s="7" t="s">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B128" s="7">
-        <v>1</v>
-      </c>
-      <c r="C128" s="8">
+      <c r="B128" s="6">
+        <v>1</v>
+      </c>
+      <c r="C128" s="7">
         <v>55</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A129" s="7" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B129" s="7">
-        <v>1</v>
-      </c>
-      <c r="C129" s="8">
+      <c r="B129" s="6">
+        <v>1</v>
+      </c>
+      <c r="C129" s="7">
         <v>36</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A130" s="7" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B130" s="7">
-        <v>1</v>
-      </c>
-      <c r="C130" s="7">
+      <c r="B130" s="6">
+        <v>1</v>
+      </c>
+      <c r="C130" s="6">
         <f>208/2</f>
         <v>104</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A131" s="7" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B131" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A132" s="7" t="s">
+      <c r="B131" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B132" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A133" s="7" t="s">
+      <c r="B132" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B133" s="7">
-        <v>1</v>
-      </c>
-      <c r="C133" s="8">
+      <c r="B133" s="6">
+        <v>1</v>
+      </c>
+      <c r="C133" s="7">
         <v>43</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A134" s="7" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B134" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A135" s="7" t="s">
+      <c r="B134" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B135" s="7">
-        <v>1</v>
-      </c>
-      <c r="C135" s="8">
+      <c r="B135" s="6">
+        <v>1</v>
+      </c>
+      <c r="C135" s="7">
         <f>119/60*15.5</f>
         <v>30.741666666666667</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A136" s="7" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B136" s="7">
-        <v>0</v>
-      </c>
-      <c r="C136" s="8">
+      <c r="B136" s="6">
+        <v>0</v>
+      </c>
+      <c r="C136" s="7">
         <f>(68*(120/59))/60*15.5</f>
         <v>35.728813559322035</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A137" s="7" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B137" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A138" s="7" t="s">
+      <c r="B137" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B138" s="7">
-        <v>1</v>
-      </c>
-      <c r="C138" s="8">
+      <c r="B138" s="6">
+        <v>1</v>
+      </c>
+      <c r="C138" s="7">
         <v>55</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A139" s="7" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B139" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A140" s="7" t="s">
+      <c r="B139" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B140" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A141" s="7" t="s">
+      <c r="B140" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B141" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A142" s="7" t="s">
+      <c r="B141" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B142" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A143" s="7" t="s">
+      <c r="B142" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B143" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A144" s="7" t="s">
+      <c r="B143" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B144" s="7">
-        <v>1</v>
-      </c>
-      <c r="C144" s="8">
+      <c r="B144" s="6">
+        <v>1</v>
+      </c>
+      <c r="C144" s="7">
         <f>(46*(63/39))/60*15.5</f>
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A145" s="7" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B145" s="7">
-        <v>1</v>
-      </c>
-      <c r="C145" s="7">
+      <c r="B145" s="6">
+        <v>1</v>
+      </c>
+      <c r="C145" s="6">
         <v>156.82</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A146" s="7" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B146" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A147" s="7" t="s">
+      <c r="B146" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B147" s="7">
-        <v>1</v>
-      </c>
-      <c r="C147" s="8">
+      <c r="B147" s="6">
+        <v>1</v>
+      </c>
+      <c r="C147" s="7">
         <v>55</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A148" s="7" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B148" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A149" s="7" t="s">
+      <c r="B148" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B149" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A150" s="7" t="s">
+      <c r="B149" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B150" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A151" s="7" t="s">
+      <c r="B150" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B151" s="7">
-        <v>1</v>
-      </c>
-      <c r="C151" s="8">
+      <c r="B151" s="6">
+        <v>1</v>
+      </c>
+      <c r="C151" s="7">
         <v>42</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A152" s="7" t="s">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B152" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A153" s="7" t="s">
+      <c r="B152" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B153" s="7">
-        <v>1</v>
-      </c>
-      <c r="C153" s="8">
+      <c r="B153" s="6">
+        <v>1</v>
+      </c>
+      <c r="C153" s="7">
         <v>36</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A154" s="7" t="s">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B154" s="7">
-        <v>1</v>
-      </c>
-      <c r="C154" s="8">
+      <c r="B154" s="6">
+        <v>1</v>
+      </c>
+      <c r="C154" s="7">
         <v>36</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A155" s="7" t="s">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B155" s="7">
-        <v>1</v>
-      </c>
-      <c r="C155" s="8">
+      <c r="B155" s="6">
+        <v>1</v>
+      </c>
+      <c r="C155" s="7">
         <v>55</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A156" s="7" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B156" s="7">
-        <v>1</v>
-      </c>
-      <c r="C156" s="8">
+      <c r="B156" s="6">
+        <v>1</v>
+      </c>
+      <c r="C156" s="7">
         <v>42</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A157" s="7" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B157" s="7">
-        <v>1</v>
-      </c>
-      <c r="C157" s="8">
+      <c r="B157" s="6">
+        <v>1</v>
+      </c>
+      <c r="C157" s="7">
         <v>36</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A158" s="7" t="s">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B158" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A159" s="7" t="s">
+      <c r="B158" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B159" s="7">
-        <v>1</v>
-      </c>
-      <c r="C159" s="8">
+      <c r="B159" s="6">
+        <v>1</v>
+      </c>
+      <c r="C159" s="7">
         <v>36</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A160" s="7" t="s">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B160" s="7">
-        <v>1</v>
-      </c>
-      <c r="C160" s="8">
+      <c r="B160" s="6">
+        <v>1</v>
+      </c>
+      <c r="C160" s="7">
         <v>36</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A161" s="7" t="s">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B161" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A162" s="7" t="s">
+      <c r="B161" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B162" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A163" s="7" t="s">
+      <c r="B162" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B163" s="7">
-        <v>1</v>
-      </c>
-      <c r="C163" s="8">
+      <c r="B163" s="6">
+        <v>1</v>
+      </c>
+      <c r="C163" s="7">
         <f>143/2</f>
         <v>71.5</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A164" s="7" t="s">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B164" s="7">
-        <v>0</v>
-      </c>
-      <c r="C164" s="7">
+      <c r="B164" s="6">
+        <v>0</v>
+      </c>
+      <c r="C164" s="6">
         <v>33</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A165" s="7" t="s">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B165" s="7">
-        <v>1</v>
-      </c>
-      <c r="C165" s="8">
+      <c r="B165" s="6">
+        <v>1</v>
+      </c>
+      <c r="C165" s="7">
         <f>(46*(63/39))/60*15.5</f>
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A166" s="7" t="s">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B166" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A167" s="7" t="s">
+      <c r="B166" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B167" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A168" s="7" t="s">
+      <c r="B167" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B168" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A169" s="7" t="s">
+      <c r="B168" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B169" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A170" s="7" t="s">
+      <c r="B169" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B170" s="7">
-        <v>1</v>
-      </c>
-      <c r="C170" s="8">
+      <c r="B170" s="6">
+        <v>1</v>
+      </c>
+      <c r="C170" s="7">
         <f>(57*(89/49))/60*15.5</f>
         <v>26.74540816326531</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A171" s="7" t="s">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B171" s="7">
-        <v>1</v>
-      </c>
-      <c r="C171" s="8">
+      <c r="B171" s="6">
+        <v>1</v>
+      </c>
+      <c r="C171" s="7">
         <f>(46*(63/39))/60*15.5</f>
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A172" s="7" t="s">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B172" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A173" s="7" t="s">
+      <c r="B172" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B173" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A174" s="7" t="s">
+      <c r="B173" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B174" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A175" s="7" t="s">
+      <c r="B174" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B175" s="7">
-        <v>1</v>
-      </c>
-      <c r="C175" s="8">
+      <c r="B175" s="6">
+        <v>1</v>
+      </c>
+      <c r="C175" s="7">
         <v>36</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A176" s="7" t="s">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B176" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A177" s="7" t="s">
+      <c r="B176" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B177" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A178" s="7" t="s">
+      <c r="B177" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B178" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A179" s="7" t="s">
+      <c r="B178" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B179" s="7">
-        <v>1</v>
-      </c>
-      <c r="C179" s="8">
+      <c r="B179" s="6">
+        <v>1</v>
+      </c>
+      <c r="C179" s="7">
         <v>42</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A180" s="7" t="s">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B180" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A181" s="7" t="s">
+      <c r="B180" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B181" s="7">
-        <v>1</v>
-      </c>
-      <c r="C181" s="8">
+      <c r="B181" s="6">
+        <v>1</v>
+      </c>
+      <c r="C181" s="7">
         <v>42</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A182" s="7" t="s">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B182" s="7">
-        <v>1</v>
-      </c>
-      <c r="C182" s="8">
+      <c r="B182" s="6">
+        <v>1</v>
+      </c>
+      <c r="C182" s="7">
         <v>42</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A183" s="7" t="s">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B183" s="7">
-        <v>0</v>
-      </c>
-      <c r="C183" s="7">
+      <c r="B183" s="6">
+        <v>0</v>
+      </c>
+      <c r="C183" s="6">
         <v>41</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A184" s="7" t="s">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B184" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A185" s="7" t="s">
+      <c r="B184" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B185" s="7">
-        <v>0</v>
-      </c>
-      <c r="C185" s="7">
+      <c r="B185" s="6">
+        <v>0</v>
+      </c>
+      <c r="C185" s="6">
         <v>33</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A186" s="7" t="s">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B186" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A187" s="7" t="s">
+      <c r="B186" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B187" s="7">
-        <v>1</v>
-      </c>
-      <c r="C187" s="8">
+      <c r="B187" s="6">
+        <v>1</v>
+      </c>
+      <c r="C187" s="7">
         <v>36</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A188" s="7" t="s">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B188" s="7">
-        <v>1</v>
-      </c>
-      <c r="C188" s="8">
+      <c r="B188" s="6">
+        <v>1</v>
+      </c>
+      <c r="C188" s="7">
         <f>(46*(63/39))/60*15.5</f>
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A189" s="7" t="s">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B189" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A190" s="7" t="s">
+      <c r="B189" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B190" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A191" s="7" t="s">
+      <c r="B190" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B191" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A192" s="7" t="s">
+      <c r="B191" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B192" s="7">
-        <v>1</v>
-      </c>
-      <c r="C192" s="8">
+      <c r="B192" s="6">
+        <v>1</v>
+      </c>
+      <c r="C192" s="7">
         <v>43</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A193" s="7" t="s">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B193" s="7">
-        <v>1</v>
-      </c>
-      <c r="C193" s="8">
+      <c r="B193" s="6">
+        <v>1</v>
+      </c>
+      <c r="C193" s="7">
         <f>(46*(63/39))/60*15.5</f>
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A194" s="7" t="s">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B194" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A195" s="7" t="s">
+      <c r="B194" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B195" s="7">
-        <v>1</v>
-      </c>
-      <c r="C195" s="8">
+      <c r="B195" s="6">
+        <v>1</v>
+      </c>
+      <c r="C195" s="7">
         <v>43</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A196" s="7" t="s">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B196" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A197" s="7" t="s">
+      <c r="B196" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B197" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A198" s="7" t="s">
+      <c r="B197" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B198" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A199" s="7" t="s">
+      <c r="B198" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B199" s="7">
-        <v>1</v>
-      </c>
-      <c r="C199" s="8">
+      <c r="B199" s="6">
+        <v>1</v>
+      </c>
+      <c r="C199" s="7">
         <f>(57*(89/49))/60*15.5</f>
         <v>26.74540816326531</v>
       </c>
@@ -3121,31 +3120,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81E8A92-6D3F-40CF-BE17-D8FB3F4C05C0}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>200</v>
       </c>
       <c r="B2">
         <v>12.32</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3155,18 +3160,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D4BB3C-B73A-4594-8AC6-32774D0FF81A}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>201</v>
       </c>
       <c r="B1" t="s">
@@ -3175,8 +3182,11 @@
       <c r="C1" s="3" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>38004451</v>
       </c>
@@ -3186,8 +3196,11 @@
       <c r="C2">
         <v>90.66</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>45756756</v>
       </c>
@@ -3197,8 +3210,11 @@
       <c r="C3">
         <v>496.67</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>38004452</v>
       </c>
@@ -3208,8 +3224,11 @@
       <c r="C4">
         <v>43.56</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>44777680</v>
       </c>
@@ -3219,8 +3238,11 @@
       <c r="C5">
         <v>84.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>38004455</v>
       </c>
@@ -3230,8 +3252,11 @@
       <c r="C6">
         <v>125.67</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>38004446</v>
       </c>
@@ -3241,8 +3266,11 @@
       <c r="C7">
         <v>68.099999999999994</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>38004458</v>
       </c>
@@ -3252,8 +3280,11 @@
       <c r="C8">
         <v>74.040000000000006</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>38004505</v>
       </c>
@@ -3263,8 +3294,11 @@
       <c r="C9">
         <v>94.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>38004461</v>
       </c>
@@ -3274,8 +3308,11 @@
       <c r="C10">
         <v>56.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>38004465</v>
       </c>
@@ -3285,8 +3322,11 @@
       <c r="C11">
         <v>58.41</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>38004449</v>
       </c>
@@ -3296,8 +3336,11 @@
       <c r="C12">
         <v>50.27</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>38004477</v>
       </c>
@@ -3307,8 +3350,11 @@
       <c r="C13">
         <v>67.03</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>38004469</v>
       </c>
@@ -3318,8 +3364,11 @@
       <c r="C14">
         <v>94.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>44777741</v>
       </c>
@@ -3329,8 +3378,11 @@
       <c r="C15">
         <v>404.72</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>38004472</v>
       </c>
@@ -3340,8 +3392,11 @@
       <c r="C16">
         <v>78.59</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>38004491</v>
       </c>
@@ -3351,8 +3406,11 @@
       <c r="C17">
         <v>78.06</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>38004474</v>
       </c>
@@ -3361,6 +3419,9 @@
       </c>
       <c r="C18">
         <v>54.63</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3375,18 +3436,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF16AF3-5FE4-4E51-A040-3A1DA41F7069}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="25.6328125" customWidth="1"/>
+    <col min="1" max="3" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>201</v>
       </c>
@@ -3396,8 +3457,11 @@
       <c r="C1" s="3" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>38004451</v>
       </c>
@@ -3407,8 +3471,11 @@
       <c r="C2">
         <v>47.73</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>38004452</v>
       </c>
@@ -3418,8 +3485,11 @@
       <c r="C3">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>44777680</v>
       </c>
@@ -3429,8 +3499,11 @@
       <c r="C4">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>38004455</v>
       </c>
@@ -3440,8 +3513,11 @@
       <c r="C5">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>38004446</v>
       </c>
@@ -3451,8 +3527,11 @@
       <c r="C6">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>38003902</v>
       </c>
@@ -3462,8 +3541,11 @@
       <c r="C7">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>38004458</v>
       </c>
@@ -3473,8 +3555,11 @@
       <c r="C8">
         <v>42.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>38004463</v>
       </c>
@@ -3484,16 +3569,25 @@
       <c r="C9">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>38004477</v>
       </c>
       <c r="B10" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>38004469</v>
       </c>
@@ -3503,8 +3597,11 @@
       <c r="C11">
         <v>42.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>38004472</v>
       </c>
@@ -3514,8 +3611,11 @@
       <c r="C12">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>38004491</v>
       </c>
@@ -3524,6 +3624,9 @@
       </c>
       <c r="C13">
         <v>25</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3538,111 +3641,147 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB2F280-3407-4F3E-A693-5661C6A1B47C}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>201</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>222</v>
       </c>
       <c r="B2">
         <v>55.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>223</v>
       </c>
       <c r="B3">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>224</v>
       </c>
       <c r="B4">
         <v>55.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>225</v>
       </c>
       <c r="B5">
         <v>90</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>226</v>
       </c>
       <c r="B6">
         <v>36.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>227</v>
       </c>
       <c r="B7">
         <v>55.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>228</v>
       </c>
       <c r="B8">
         <v>63</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>229</v>
       </c>
       <c r="B9">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>230</v>
       </c>
       <c r="B10">
         <v>55.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>231</v>
       </c>
       <c r="B11">
         <v>55.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>232</v>
       </c>
       <c r="B12">
         <v>55.5</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3658,13 +3797,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.7265625" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>234</v>
       </c>
@@ -3675,7 +3814,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>262</v>
       </c>
@@ -3686,7 +3825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>9201</v>
       </c>
@@ -3697,7 +3836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>9202</v>
       </c>
@@ -3708,7 +3847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>9203</v>
       </c>
@@ -3719,7 +3858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>581476</v>
       </c>

--- a/4_HealthEconomics/Inputs/provider_cost_inputs.xlsx
+++ b/4_HealthEconomics/Inputs/provider_cost_inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xihangc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Federated Analysis - Post-menopausal fracture\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1896BA-EE06-4767-807A-46229FF2D070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB04A73-E8AD-4AA3-A1C1-3FFC37ABA3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="798" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" tabRatio="798" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="6" r:id="rId1"/>
@@ -772,9 +772,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="174" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -843,11 +844,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -860,9 +862,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{554D9FD5-5682-4143-A58F-834EFC02F1A0}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1168,18 +1188,18 @@
   <dimension ref="A1:C199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="6"/>
+    <col min="1" max="1" width="47.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="6"/>
     <col min="3" max="3" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.5546875" style="6"/>
+    <col min="4" max="16384" width="8.5703125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1190,7 +1210,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1201,7 +1221,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1212,7 +1232,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1224,7 +1244,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1232,7 +1252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -1240,7 +1260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -1248,7 +1268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
@@ -1260,7 +1280,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -1268,7 +1288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
@@ -1276,7 +1296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
@@ -1287,7 +1307,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
@@ -1295,7 +1315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
@@ -1307,7 +1327,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -1315,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
@@ -1323,7 +1343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
@@ -1335,7 +1355,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>18</v>
       </c>
@@ -1343,7 +1363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
@@ -1354,7 +1374,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
@@ -1365,7 +1385,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
@@ -1373,7 +1393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>22</v>
       </c>
@@ -1385,7 +1405,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>23</v>
       </c>
@@ -1393,7 +1413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>24</v>
       </c>
@@ -1401,7 +1421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>25</v>
       </c>
@@ -1412,7 +1432,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>26</v>
       </c>
@@ -1424,7 +1444,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>27</v>
       </c>
@@ -1432,7 +1452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>28</v>
       </c>
@@ -1444,7 +1464,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>29</v>
       </c>
@@ -1452,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>30</v>
       </c>
@@ -1460,7 +1480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>31</v>
       </c>
@@ -1472,7 +1492,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>32</v>
       </c>
@@ -1484,7 +1504,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>33</v>
       </c>
@@ -1492,7 +1512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>34</v>
       </c>
@@ -1503,7 +1523,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>35</v>
       </c>
@@ -1511,7 +1531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>36</v>
       </c>
@@ -1519,7 +1539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>37</v>
       </c>
@@ -1527,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>38</v>
       </c>
@@ -1535,7 +1555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>39</v>
       </c>
@@ -1543,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>40</v>
       </c>
@@ -1551,7 +1571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>41</v>
       </c>
@@ -1562,7 +1582,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>42</v>
       </c>
@@ -1570,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>43</v>
       </c>
@@ -1578,7 +1598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>44</v>
       </c>
@@ -1590,7 +1610,7 @@
         <v>26.74540816326531</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>45</v>
       </c>
@@ -1602,7 +1622,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>46</v>
       </c>
@@ -1610,7 +1630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>47</v>
       </c>
@@ -1622,7 +1642,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>48</v>
       </c>
@@ -1634,7 +1654,7 @@
         <v>26.74540816326531</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>49</v>
       </c>
@@ -1642,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>1</v>
       </c>
@@ -1654,7 +1674,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>50</v>
       </c>
@@ -1662,7 +1682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>51</v>
       </c>
@@ -1670,7 +1690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>52</v>
       </c>
@@ -1678,7 +1698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>53</v>
       </c>
@@ -1689,7 +1709,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>54</v>
       </c>
@@ -1701,7 +1721,7 @@
         <v>30.741666666666667</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>55</v>
       </c>
@@ -1712,7 +1732,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>56</v>
       </c>
@@ -1724,7 +1744,7 @@
         <v>30.741666666666667</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>57</v>
       </c>
@@ -1736,7 +1756,7 @@
         <v>30.741666666666667</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>58</v>
       </c>
@@ -1744,7 +1764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>59</v>
       </c>
@@ -1756,7 +1776,7 @@
         <v>30.741666666666667</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>60</v>
       </c>
@@ -1764,7 +1784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>61</v>
       </c>
@@ -1772,7 +1792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>62</v>
       </c>
@@ -1780,7 +1800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>63</v>
       </c>
@@ -1792,7 +1812,7 @@
         <v>30.741666666666667</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>64</v>
       </c>
@@ -1803,7 +1823,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>65</v>
       </c>
@@ -1814,7 +1834,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>66</v>
       </c>
@@ -1822,12 +1842,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B67" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>67</v>
       </c>
@@ -1835,7 +1855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>68</v>
       </c>
@@ -1843,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>69</v>
       </c>
@@ -1851,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>70</v>
       </c>
@@ -1863,7 +1883,7 @@
         <v>30.741666666666667</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>71</v>
       </c>
@@ -1875,7 +1895,7 @@
         <v>26.74540816326531</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>72</v>
       </c>
@@ -1886,7 +1906,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>73</v>
       </c>
@@ -1894,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>74</v>
       </c>
@@ -1902,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>75</v>
       </c>
@@ -1910,7 +1930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>76</v>
       </c>
@@ -1918,7 +1938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>77</v>
       </c>
@@ -1929,7 +1949,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>78</v>
       </c>
@@ -1937,7 +1957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>79</v>
       </c>
@@ -1945,7 +1965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>80</v>
       </c>
@@ -1956,7 +1976,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>81</v>
       </c>
@@ -1964,7 +1984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>82</v>
       </c>
@@ -1975,7 +1995,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>83</v>
       </c>
@@ -1986,7 +2006,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>84</v>
       </c>
@@ -1998,7 +2018,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>85</v>
       </c>
@@ -2010,7 +2030,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>86</v>
       </c>
@@ -2021,7 +2041,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>87</v>
       </c>
@@ -2033,7 +2053,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>2</v>
       </c>
@@ -2044,7 +2064,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>88</v>
       </c>
@@ -2052,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>89</v>
       </c>
@@ -2063,7 +2083,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>90</v>
       </c>
@@ -2071,7 +2091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>91</v>
       </c>
@@ -2082,7 +2102,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>92</v>
       </c>
@@ -2093,7 +2113,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>93</v>
       </c>
@@ -2101,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>94</v>
       </c>
@@ -2112,7 +2132,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>95</v>
       </c>
@@ -2120,7 +2140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>96</v>
       </c>
@@ -2132,7 +2152,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>97</v>
       </c>
@@ -2143,7 +2163,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>98</v>
       </c>
@@ -2155,7 +2175,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>99</v>
       </c>
@@ -2166,7 +2186,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>100</v>
       </c>
@@ -2174,7 +2194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>101</v>
       </c>
@@ -2185,7 +2205,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>102</v>
       </c>
@@ -2196,7 +2216,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>103</v>
       </c>
@@ -2207,7 +2227,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>104</v>
       </c>
@@ -2215,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>105</v>
       </c>
@@ -2227,7 +2247,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>106</v>
       </c>
@@ -2235,7 +2255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>107</v>
       </c>
@@ -2243,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>108</v>
       </c>
@@ -2251,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>109</v>
       </c>
@@ -2262,7 +2282,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>110</v>
       </c>
@@ -2273,7 +2293,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>111</v>
       </c>
@@ -2281,7 +2301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>112</v>
       </c>
@@ -2289,7 +2309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>113</v>
       </c>
@@ -2297,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>114</v>
       </c>
@@ -2305,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>115</v>
       </c>
@@ -2313,7 +2333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>116</v>
       </c>
@@ -2325,7 +2345,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>117</v>
       </c>
@@ -2336,7 +2356,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>118</v>
       </c>
@@ -2348,7 +2368,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>119</v>
       </c>
@@ -2359,7 +2379,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>120</v>
       </c>
@@ -2367,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>121</v>
       </c>
@@ -2379,7 +2399,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>122</v>
       </c>
@@ -2390,7 +2410,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>123</v>
       </c>
@@ -2401,7 +2421,7 @@
         <v>107.26</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>124</v>
       </c>
@@ -2409,7 +2429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>125</v>
       </c>
@@ -2421,7 +2441,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>126</v>
       </c>
@@ -2432,7 +2452,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>127</v>
       </c>
@@ -2443,7 +2463,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>128</v>
       </c>
@@ -2455,7 +2475,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>129</v>
       </c>
@@ -2463,7 +2483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>130</v>
       </c>
@@ -2471,7 +2491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>131</v>
       </c>
@@ -2482,7 +2502,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>132</v>
       </c>
@@ -2490,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>133</v>
       </c>
@@ -2502,7 +2522,7 @@
         <v>30.741666666666667</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>134</v>
       </c>
@@ -2514,7 +2534,7 @@
         <v>35.728813559322035</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>135</v>
       </c>
@@ -2522,7 +2542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>136</v>
       </c>
@@ -2533,7 +2553,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>137</v>
       </c>
@@ -2541,7 +2561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>138</v>
       </c>
@@ -2549,7 +2569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>139</v>
       </c>
@@ -2557,7 +2577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>140</v>
       </c>
@@ -2565,7 +2585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>141</v>
       </c>
@@ -2573,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>142</v>
       </c>
@@ -2585,7 +2605,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>143</v>
       </c>
@@ -2596,7 +2616,7 @@
         <v>156.82</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>144</v>
       </c>
@@ -2604,7 +2624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>145</v>
       </c>
@@ -2615,7 +2635,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>146</v>
       </c>
@@ -2623,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>147</v>
       </c>
@@ -2631,7 +2651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>148</v>
       </c>
@@ -2639,7 +2659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>149</v>
       </c>
@@ -2650,7 +2670,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>150</v>
       </c>
@@ -2658,7 +2678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>151</v>
       </c>
@@ -2669,7 +2689,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>152</v>
       </c>
@@ -2680,7 +2700,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>153</v>
       </c>
@@ -2691,7 +2711,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>154</v>
       </c>
@@ -2702,7 +2722,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>155</v>
       </c>
@@ -2713,7 +2733,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>156</v>
       </c>
@@ -2721,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>157</v>
       </c>
@@ -2732,7 +2752,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>158</v>
       </c>
@@ -2743,7 +2763,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>159</v>
       </c>
@@ -2751,7 +2771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>160</v>
       </c>
@@ -2759,7 +2779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>161</v>
       </c>
@@ -2771,7 +2791,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>162</v>
       </c>
@@ -2782,7 +2802,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>163</v>
       </c>
@@ -2794,7 +2814,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>164</v>
       </c>
@@ -2802,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
         <v>165</v>
       </c>
@@ -2810,7 +2830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>166</v>
       </c>
@@ -2818,7 +2838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
         <v>167</v>
       </c>
@@ -2826,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>168</v>
       </c>
@@ -2838,7 +2858,7 @@
         <v>26.74540816326531</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>169</v>
       </c>
@@ -2850,7 +2870,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
         <v>170</v>
       </c>
@@ -2858,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>171</v>
       </c>
@@ -2866,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
         <v>172</v>
       </c>
@@ -2874,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>173</v>
       </c>
@@ -2885,7 +2905,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>174</v>
       </c>
@@ -2893,7 +2913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>175</v>
       </c>
@@ -2901,7 +2921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>176</v>
       </c>
@@ -2909,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
         <v>177</v>
       </c>
@@ -2920,7 +2940,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>178</v>
       </c>
@@ -2928,7 +2948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>179</v>
       </c>
@@ -2939,7 +2959,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>180</v>
       </c>
@@ -2950,7 +2970,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
         <v>181</v>
       </c>
@@ -2961,7 +2981,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>182</v>
       </c>
@@ -2969,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
         <v>183</v>
       </c>
@@ -2980,7 +3000,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>184</v>
       </c>
@@ -2988,7 +3008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>185</v>
       </c>
@@ -2999,7 +3019,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>186</v>
       </c>
@@ -3011,7 +3031,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>187</v>
       </c>
@@ -3019,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>188</v>
       </c>
@@ -3027,7 +3047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>189</v>
       </c>
@@ -3035,7 +3055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
         <v>190</v>
       </c>
@@ -3046,7 +3066,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
         <v>191</v>
       </c>
@@ -3058,7 +3078,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>192</v>
       </c>
@@ -3066,7 +3086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
         <v>193</v>
       </c>
@@ -3077,7 +3097,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
         <v>194</v>
       </c>
@@ -3085,7 +3105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
         <v>195</v>
       </c>
@@ -3093,7 +3113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>196</v>
       </c>
@@ -3101,7 +3121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
         <v>197</v>
       </c>
@@ -3122,34 +3142,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81E8A92-6D3F-40CF-BE17-D8FB3F4C05C0}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>200</v>
       </c>
-      <c r="B2">
-        <v>12.32</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="8">
+        <v>16.526613843295188</v>
+      </c>
+      <c r="C2" s="9">
         <v>1</v>
       </c>
     </row>
@@ -3163,16 +3183,16 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D1" sqref="D1:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>201</v>
       </c>
@@ -3182,11 +3202,11 @@
       <c r="C1" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="12" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>38004451</v>
       </c>
@@ -3194,13 +3214,13 @@
         <v>214</v>
       </c>
       <c r="C2">
-        <v>90.66</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>91.84</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>45756756</v>
       </c>
@@ -3208,13 +3228,13 @@
         <v>215</v>
       </c>
       <c r="C3">
-        <v>496.67</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>473.19</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>38004452</v>
       </c>
@@ -3222,13 +3242,13 @@
         <v>212</v>
       </c>
       <c r="C4">
-        <v>43.56</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44.71</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>44777680</v>
       </c>
@@ -3236,13 +3256,13 @@
         <v>205</v>
       </c>
       <c r="C5">
-        <v>84.9</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>87.18</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>38004455</v>
       </c>
@@ -3250,13 +3270,13 @@
         <v>202</v>
       </c>
       <c r="C6">
-        <v>125.67</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>127.85</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>38004446</v>
       </c>
@@ -3264,13 +3284,13 @@
         <v>208</v>
       </c>
       <c r="C7">
-        <v>68.099999999999994</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>68.78</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>38004458</v>
       </c>
@@ -3278,13 +3298,13 @@
         <v>206</v>
       </c>
       <c r="C8">
-        <v>74.040000000000006</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>75.349999999999994</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>38004505</v>
       </c>
@@ -3292,13 +3312,13 @@
         <v>203</v>
       </c>
       <c r="C9">
-        <v>94.2</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>93.3</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>38004461</v>
       </c>
@@ -3306,13 +3326,13 @@
         <v>221</v>
       </c>
       <c r="C10">
-        <v>56.8</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>59.64</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>38004465</v>
       </c>
@@ -3320,13 +3340,13 @@
         <v>219</v>
       </c>
       <c r="C11">
-        <v>58.41</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>58.18</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>38004449</v>
       </c>
@@ -3334,13 +3354,13 @@
         <v>209</v>
       </c>
       <c r="C12">
-        <v>50.27</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>50.37</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>38004477</v>
       </c>
@@ -3348,13 +3368,13 @@
         <v>220</v>
       </c>
       <c r="C13">
-        <v>67.03</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>69.959999999999994</v>
+      </c>
+      <c r="D13" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>38004469</v>
       </c>
@@ -3362,13 +3382,13 @@
         <v>207</v>
       </c>
       <c r="C14">
-        <v>94.2</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>93.3</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>44777741</v>
       </c>
@@ -3376,13 +3396,13 @@
         <v>210</v>
       </c>
       <c r="C15">
-        <v>404.72</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>392.72</v>
+      </c>
+      <c r="D15" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>38004472</v>
       </c>
@@ -3390,13 +3410,13 @@
         <v>204</v>
       </c>
       <c r="C16">
-        <v>78.59</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80.540000000000006</v>
+      </c>
+      <c r="D16" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>38004491</v>
       </c>
@@ -3404,13 +3424,13 @@
         <v>213</v>
       </c>
       <c r="C17">
-        <v>78.06</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>78.69</v>
+      </c>
+      <c r="D17" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>38004474</v>
       </c>
@@ -3418,9 +3438,9 @@
         <v>216</v>
       </c>
       <c r="C18">
-        <v>54.63</v>
-      </c>
-      <c r="D18">
+        <v>55.35</v>
+      </c>
+      <c r="D18" s="11">
         <v>1</v>
       </c>
     </row>
@@ -3436,18 +3456,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF16AF3-5FE4-4E51-A040-3A1DA41F7069}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D14" sqref="D14:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="25.6640625" customWidth="1"/>
+    <col min="1" max="3" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>201</v>
       </c>
@@ -3457,11 +3477,11 @@
       <c r="C1" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="14" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>38004451</v>
       </c>
@@ -3471,11 +3491,11 @@
       <c r="C2">
         <v>47.73</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>38004452</v>
       </c>
@@ -3483,13 +3503,13 @@
         <v>212</v>
       </c>
       <c r="C3">
-        <v>46</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47.5</v>
+      </c>
+      <c r="D3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>44777680</v>
       </c>
@@ -3499,11 +3519,11 @@
       <c r="C4">
         <v>45</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>38004455</v>
       </c>
@@ -3511,13 +3531,13 @@
         <v>202</v>
       </c>
       <c r="C5">
-        <v>25</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26.5</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>38004446</v>
       </c>
@@ -3525,13 +3545,13 @@
         <v>208</v>
       </c>
       <c r="C6">
-        <v>25</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26.5</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>38003902</v>
       </c>
@@ -3539,13 +3559,13 @@
         <v>218</v>
       </c>
       <c r="C7">
-        <v>46</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47.5</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>38004458</v>
       </c>
@@ -3555,11 +3575,11 @@
       <c r="C8">
         <v>42.5</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>38004463</v>
       </c>
@@ -3567,27 +3587,24 @@
         <v>217</v>
       </c>
       <c r="C9">
-        <v>25</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26.5</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>38004477</v>
       </c>
       <c r="B10" t="s">
         <v>211</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>38004469</v>
       </c>
@@ -3597,11 +3614,11 @@
       <c r="C11">
         <v>42.5</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>38004472</v>
       </c>
@@ -3609,13 +3626,13 @@
         <v>204</v>
       </c>
       <c r="C12">
-        <v>25</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26.5</v>
+      </c>
+      <c r="D12" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>38004491</v>
       </c>
@@ -3623,11 +3640,26 @@
         <v>213</v>
       </c>
       <c r="C13">
-        <v>25</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
+        <v>26.5</v>
+      </c>
+      <c r="D13" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C12" xr:uid="{9AF16AF3-5FE4-4E51-A040-3A1DA41F7069}">
@@ -3644,143 +3676,143 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C1" sqref="C1:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>201</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="16" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>222</v>
       </c>
-      <c r="B2">
-        <v>55.5</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="8">
+        <v>61.636146898938016</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>223</v>
       </c>
-      <c r="B3">
-        <v>23</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="8">
+        <v>25.542907723884223</v>
+      </c>
+      <c r="C3" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>224</v>
       </c>
-      <c r="B4">
-        <v>55.5</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="8">
+        <v>61.636146898938016</v>
+      </c>
+      <c r="C4" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>225</v>
       </c>
-      <c r="B5">
-        <v>90</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="8">
+        <v>99.950508484764356</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>226</v>
       </c>
-      <c r="B6">
-        <v>36.6</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="8">
+        <v>40.646540117137505</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>227</v>
       </c>
-      <c r="B7">
-        <v>55.5</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="8">
+        <v>61.636146898938016</v>
+      </c>
+      <c r="C7" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>228</v>
       </c>
-      <c r="B8">
-        <v>63</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="8">
+        <v>69.965355939335041</v>
+      </c>
+      <c r="C8" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>229</v>
       </c>
-      <c r="B9">
-        <v>23</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="8">
+        <v>25.542907723884223</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>230</v>
       </c>
-      <c r="B10">
-        <v>55.5</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="8">
+        <v>61.636146898938016</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>231</v>
       </c>
-      <c r="B11">
-        <v>55.5</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="8">
+        <v>61.636146898938016</v>
+      </c>
+      <c r="C11" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>232</v>
       </c>
-      <c r="B12">
-        <v>55.5</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="8">
+        <v>61.636146898938016</v>
+      </c>
+      <c r="C12" s="15">
         <v>1</v>
       </c>
     </row>
@@ -3793,17 +3825,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D84C48B-4E2B-47EB-B4DF-D12897385EE8}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>234</v>
       </c>
@@ -3814,7 +3846,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>262</v>
       </c>
@@ -3825,7 +3857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9201</v>
       </c>
@@ -3836,7 +3868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9202</v>
       </c>
@@ -3847,7 +3879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9203</v>
       </c>
@@ -3858,7 +3890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>581476</v>
       </c>

--- a/4_HealthEconomics/Inputs/provider_cost_inputs.xlsx
+++ b/4_HealthEconomics/Inputs/provider_cost_inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Federated Analysis - Post-menopausal fracture\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB04A73-E8AD-4AA3-A1C1-3FFC37ABA3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41567F39-FC66-49DD-B29B-88D4E827CAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" tabRatio="798" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="20832" windowHeight="16656" tabRatio="798" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="6" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="235">
   <si>
     <t>specialty_source_value</t>
   </si>
@@ -711,39 +711,6 @@
     <t>Obstetrics / Gynaecology</t>
   </si>
   <si>
-    <t xml:space="preserve">Family medicine </t>
-  </si>
-  <si>
-    <t>Primary Care Nursing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paediatrics </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medical emergency </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Midwife care services to women </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gynaecology </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dentistry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social workers </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dermatology </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urology </t>
-  </si>
-  <si>
-    <t>Respiratory</t>
-  </si>
-  <si>
     <t>description_athena</t>
   </si>
   <si>
@@ -766,16 +733,30 @@
   </si>
   <si>
     <t xml:space="preserve">Include </t>
+  </si>
+  <si>
+    <t>Primary Care Nurse Practitioner</t>
+  </si>
+  <si>
+    <t>Emergency Medicine</t>
+  </si>
+  <si>
+    <t>Certified Nurse Midwife</t>
+  </si>
+  <si>
+    <t>Obstetrics / Gynecology</t>
+  </si>
+  <si>
+    <t>Dentist Anesthesiologist</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="174" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -847,9 +828,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -863,22 +844,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1191,15 +1156,15 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="6"/>
+    <col min="1" max="1" width="47.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.54296875" style="6"/>
     <col min="3" max="3" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.5703125" style="6"/>
+    <col min="4" max="16384" width="8.54296875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1210,7 +1175,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1221,7 +1186,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1232,7 +1197,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1244,7 +1209,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1252,7 +1217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -1260,7 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -1268,7 +1233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
@@ -1280,7 +1245,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -1288,7 +1253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
@@ -1296,7 +1261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
@@ -1307,7 +1272,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
@@ -1315,7 +1280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
@@ -1327,7 +1292,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -1335,7 +1300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
@@ -1343,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
@@ -1355,7 +1320,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>18</v>
       </c>
@@ -1363,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
@@ -1374,7 +1339,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
@@ -1385,7 +1350,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
@@ -1393,7 +1358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>22</v>
       </c>
@@ -1405,7 +1370,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>23</v>
       </c>
@@ -1413,7 +1378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>24</v>
       </c>
@@ -1421,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>25</v>
       </c>
@@ -1432,7 +1397,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>26</v>
       </c>
@@ -1444,7 +1409,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>27</v>
       </c>
@@ -1452,7 +1417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>28</v>
       </c>
@@ -1464,7 +1429,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>29</v>
       </c>
@@ -1472,7 +1437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>30</v>
       </c>
@@ -1480,7 +1445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>31</v>
       </c>
@@ -1492,7 +1457,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>32</v>
       </c>
@@ -1504,7 +1469,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>33</v>
       </c>
@@ -1512,7 +1477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>34</v>
       </c>
@@ -1523,7 +1488,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>35</v>
       </c>
@@ -1531,7 +1496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>36</v>
       </c>
@@ -1539,7 +1504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>37</v>
       </c>
@@ -1547,7 +1512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>38</v>
       </c>
@@ -1555,7 +1520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>39</v>
       </c>
@@ -1563,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>40</v>
       </c>
@@ -1571,7 +1536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>41</v>
       </c>
@@ -1582,7 +1547,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>42</v>
       </c>
@@ -1590,7 +1555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>43</v>
       </c>
@@ -1598,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>44</v>
       </c>
@@ -1610,7 +1575,7 @@
         <v>26.74540816326531</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>45</v>
       </c>
@@ -1622,7 +1587,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>46</v>
       </c>
@@ -1630,7 +1595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>47</v>
       </c>
@@ -1642,7 +1607,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>48</v>
       </c>
@@ -1654,7 +1619,7 @@
         <v>26.74540816326531</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>49</v>
       </c>
@@ -1662,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>1</v>
       </c>
@@ -1674,7 +1639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>50</v>
       </c>
@@ -1682,7 +1647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>51</v>
       </c>
@@ -1690,7 +1655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>52</v>
       </c>
@@ -1698,7 +1663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>53</v>
       </c>
@@ -1709,7 +1674,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>54</v>
       </c>
@@ -1721,7 +1686,7 @@
         <v>30.741666666666667</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>55</v>
       </c>
@@ -1732,7 +1697,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>56</v>
       </c>
@@ -1744,7 +1709,7 @@
         <v>30.741666666666667</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
         <v>57</v>
       </c>
@@ -1756,7 +1721,7 @@
         <v>30.741666666666667</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
         <v>58</v>
       </c>
@@ -1764,7 +1729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
         <v>59</v>
       </c>
@@ -1776,7 +1741,7 @@
         <v>30.741666666666667</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>60</v>
       </c>
@@ -1784,7 +1749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>61</v>
       </c>
@@ -1792,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>62</v>
       </c>
@@ -1800,7 +1765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>63</v>
       </c>
@@ -1812,7 +1777,7 @@
         <v>30.741666666666667</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>64</v>
       </c>
@@ -1823,7 +1788,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
         <v>65</v>
       </c>
@@ -1834,7 +1799,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
         <v>66</v>
       </c>
@@ -1842,12 +1807,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B67" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
         <v>67</v>
       </c>
@@ -1855,7 +1820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
         <v>68</v>
       </c>
@@ -1863,7 +1828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
         <v>69</v>
       </c>
@@ -1871,7 +1836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
         <v>70</v>
       </c>
@@ -1883,7 +1848,7 @@
         <v>30.741666666666667</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>71</v>
       </c>
@@ -1895,7 +1860,7 @@
         <v>26.74540816326531</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
         <v>72</v>
       </c>
@@ -1906,7 +1871,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
         <v>73</v>
       </c>
@@ -1914,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
         <v>74</v>
       </c>
@@ -1922,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
         <v>75</v>
       </c>
@@ -1930,7 +1895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
         <v>76</v>
       </c>
@@ -1938,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>77</v>
       </c>
@@ -1949,7 +1914,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>78</v>
       </c>
@@ -1957,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>79</v>
       </c>
@@ -1965,7 +1930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="6" t="s">
         <v>80</v>
       </c>
@@ -1976,7 +1941,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
         <v>81</v>
       </c>
@@ -1984,7 +1949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="6" t="s">
         <v>82</v>
       </c>
@@ -1995,7 +1960,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="6" t="s">
         <v>83</v>
       </c>
@@ -2006,7 +1971,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
         <v>84</v>
       </c>
@@ -2018,7 +1983,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
         <v>85</v>
       </c>
@@ -2030,7 +1995,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>86</v>
       </c>
@@ -2041,7 +2006,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
         <v>87</v>
       </c>
@@ -2053,7 +2018,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="6" t="s">
         <v>2</v>
       </c>
@@ -2064,7 +2029,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
         <v>88</v>
       </c>
@@ -2072,7 +2037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="6" t="s">
         <v>89</v>
       </c>
@@ -2083,7 +2048,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
         <v>90</v>
       </c>
@@ -2091,7 +2056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="6" t="s">
         <v>91</v>
       </c>
@@ -2102,7 +2067,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="6" t="s">
         <v>92</v>
       </c>
@@ -2113,7 +2078,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>93</v>
       </c>
@@ -2121,7 +2086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>94</v>
       </c>
@@ -2132,7 +2097,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="6" t="s">
         <v>95</v>
       </c>
@@ -2140,7 +2105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="6" t="s">
         <v>96</v>
       </c>
@@ -2152,7 +2117,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="6" t="s">
         <v>97</v>
       </c>
@@ -2163,7 +2128,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="6" t="s">
         <v>98</v>
       </c>
@@ -2175,7 +2140,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="6" t="s">
         <v>99</v>
       </c>
@@ -2186,7 +2151,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
         <v>100</v>
       </c>
@@ -2194,7 +2159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>101</v>
       </c>
@@ -2205,7 +2170,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
         <v>102</v>
       </c>
@@ -2216,7 +2181,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="6" t="s">
         <v>103</v>
       </c>
@@ -2227,7 +2192,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="6" t="s">
         <v>104</v>
       </c>
@@ -2235,7 +2200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="6" t="s">
         <v>105</v>
       </c>
@@ -2247,7 +2212,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="6" t="s">
         <v>106</v>
       </c>
@@ -2255,7 +2220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="6" t="s">
         <v>107</v>
       </c>
@@ -2263,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="6" t="s">
         <v>108</v>
       </c>
@@ -2271,7 +2236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="6" t="s">
         <v>109</v>
       </c>
@@ -2282,7 +2247,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="6" t="s">
         <v>110</v>
       </c>
@@ -2293,7 +2258,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="6" t="s">
         <v>111</v>
       </c>
@@ -2301,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="6" t="s">
         <v>112</v>
       </c>
@@ -2309,7 +2274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="6" t="s">
         <v>113</v>
       </c>
@@ -2317,7 +2282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="6" t="s">
         <v>114</v>
       </c>
@@ -2325,7 +2290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="6" t="s">
         <v>115</v>
       </c>
@@ -2333,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="6" t="s">
         <v>116</v>
       </c>
@@ -2345,7 +2310,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="6" t="s">
         <v>117</v>
       </c>
@@ -2356,7 +2321,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="6" t="s">
         <v>118</v>
       </c>
@@ -2368,7 +2333,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="6" t="s">
         <v>119</v>
       </c>
@@ -2379,7 +2344,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="6" t="s">
         <v>120</v>
       </c>
@@ -2387,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="6" t="s">
         <v>121</v>
       </c>
@@ -2399,7 +2364,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="6" t="s">
         <v>122</v>
       </c>
@@ -2410,7 +2375,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="6" t="s">
         <v>123</v>
       </c>
@@ -2421,7 +2386,7 @@
         <v>107.26</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="6" t="s">
         <v>124</v>
       </c>
@@ -2429,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="6" t="s">
         <v>125</v>
       </c>
@@ -2441,7 +2406,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
         <v>126</v>
       </c>
@@ -2452,7 +2417,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="6" t="s">
         <v>127</v>
       </c>
@@ -2463,7 +2428,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="6" t="s">
         <v>128</v>
       </c>
@@ -2475,7 +2440,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="6" t="s">
         <v>129</v>
       </c>
@@ -2483,7 +2448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="6" t="s">
         <v>130</v>
       </c>
@@ -2491,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="6" t="s">
         <v>131</v>
       </c>
@@ -2502,7 +2467,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="6" t="s">
         <v>132</v>
       </c>
@@ -2510,7 +2475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="6" t="s">
         <v>133</v>
       </c>
@@ -2522,7 +2487,7 @@
         <v>30.741666666666667</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="6" t="s">
         <v>134</v>
       </c>
@@ -2534,7 +2499,7 @@
         <v>35.728813559322035</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="6" t="s">
         <v>135</v>
       </c>
@@ -2542,7 +2507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="6" t="s">
         <v>136</v>
       </c>
@@ -2553,7 +2518,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="6" t="s">
         <v>137</v>
       </c>
@@ -2561,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="6" t="s">
         <v>138</v>
       </c>
@@ -2569,7 +2534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="6" t="s">
         <v>139</v>
       </c>
@@ -2577,7 +2542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="6" t="s">
         <v>140</v>
       </c>
@@ -2585,7 +2550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="6" t="s">
         <v>141</v>
       </c>
@@ -2593,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="6" t="s">
         <v>142</v>
       </c>
@@ -2605,7 +2570,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="6" t="s">
         <v>143</v>
       </c>
@@ -2616,7 +2581,7 @@
         <v>156.82</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="6" t="s">
         <v>144</v>
       </c>
@@ -2624,7 +2589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="6" t="s">
         <v>145</v>
       </c>
@@ -2635,7 +2600,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="6" t="s">
         <v>146</v>
       </c>
@@ -2643,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="6" t="s">
         <v>147</v>
       </c>
@@ -2651,7 +2616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="6" t="s">
         <v>148</v>
       </c>
@@ -2659,7 +2624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="6" t="s">
         <v>149</v>
       </c>
@@ -2670,7 +2635,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="6" t="s">
         <v>150</v>
       </c>
@@ -2678,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="6" t="s">
         <v>151</v>
       </c>
@@ -2689,7 +2654,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="6" t="s">
         <v>152</v>
       </c>
@@ -2700,7 +2665,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="6" t="s">
         <v>153</v>
       </c>
@@ -2711,7 +2676,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="6" t="s">
         <v>154</v>
       </c>
@@ -2722,7 +2687,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" s="6" t="s">
         <v>155</v>
       </c>
@@ -2733,7 +2698,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="6" t="s">
         <v>156</v>
       </c>
@@ -2741,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" s="6" t="s">
         <v>157</v>
       </c>
@@ -2752,7 +2717,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="6" t="s">
         <v>158</v>
       </c>
@@ -2763,7 +2728,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="6" t="s">
         <v>159</v>
       </c>
@@ -2771,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" s="6" t="s">
         <v>160</v>
       </c>
@@ -2779,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="6" t="s">
         <v>161</v>
       </c>
@@ -2791,7 +2756,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="6" t="s">
         <v>162</v>
       </c>
@@ -2802,7 +2767,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" s="6" t="s">
         <v>163</v>
       </c>
@@ -2814,7 +2779,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" s="6" t="s">
         <v>164</v>
       </c>
@@ -2822,7 +2787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" s="6" t="s">
         <v>165</v>
       </c>
@@ -2830,7 +2795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" s="6" t="s">
         <v>166</v>
       </c>
@@ -2838,7 +2803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" s="6" t="s">
         <v>167</v>
       </c>
@@ -2846,7 +2811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" s="6" t="s">
         <v>168</v>
       </c>
@@ -2858,7 +2823,7 @@
         <v>26.74540816326531</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" s="6" t="s">
         <v>169</v>
       </c>
@@ -2870,7 +2835,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" s="6" t="s">
         <v>170</v>
       </c>
@@ -2878,7 +2843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" s="6" t="s">
         <v>171</v>
       </c>
@@ -2886,7 +2851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" s="6" t="s">
         <v>172</v>
       </c>
@@ -2894,7 +2859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" s="6" t="s">
         <v>173</v>
       </c>
@@ -2905,7 +2870,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" s="6" t="s">
         <v>174</v>
       </c>
@@ -2913,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" s="6" t="s">
         <v>175</v>
       </c>
@@ -2921,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" s="6" t="s">
         <v>176</v>
       </c>
@@ -2929,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" s="6" t="s">
         <v>177</v>
       </c>
@@ -2940,7 +2905,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="6" t="s">
         <v>178</v>
       </c>
@@ -2948,7 +2913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" s="6" t="s">
         <v>179</v>
       </c>
@@ -2959,7 +2924,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" s="6" t="s">
         <v>180</v>
       </c>
@@ -2970,7 +2935,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" s="6" t="s">
         <v>181</v>
       </c>
@@ -2981,7 +2946,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" s="6" t="s">
         <v>182</v>
       </c>
@@ -2989,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" s="6" t="s">
         <v>183</v>
       </c>
@@ -3000,7 +2965,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" s="6" t="s">
         <v>184</v>
       </c>
@@ -3008,7 +2973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" s="6" t="s">
         <v>185</v>
       </c>
@@ -3019,7 +2984,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" s="6" t="s">
         <v>186</v>
       </c>
@@ -3031,7 +2996,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="6" t="s">
         <v>187</v>
       </c>
@@ -3039,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" s="6" t="s">
         <v>188</v>
       </c>
@@ -3047,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="6" t="s">
         <v>189</v>
       </c>
@@ -3055,7 +3020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="6" t="s">
         <v>190</v>
       </c>
@@ -3066,7 +3031,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" s="6" t="s">
         <v>191</v>
       </c>
@@ -3078,7 +3043,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" s="6" t="s">
         <v>192</v>
       </c>
@@ -3086,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="6" t="s">
         <v>193</v>
       </c>
@@ -3097,7 +3062,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="6" t="s">
         <v>194</v>
       </c>
@@ -3105,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="6" t="s">
         <v>195</v>
       </c>
@@ -3113,7 +3078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="6" t="s">
         <v>196</v>
       </c>
@@ -3121,7 +3086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="6" t="s">
         <v>197</v>
       </c>
@@ -3146,30 +3111,30 @@
       <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>200</v>
       </c>
       <c r="B2" s="8">
         <v>16.526613843295188</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2">
         <v>1</v>
       </c>
     </row>
@@ -3186,27 +3151,27 @@
       <selection activeCell="D1" sqref="D1:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>201</v>
       </c>
       <c r="B1" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>38004451</v>
       </c>
@@ -3216,11 +3181,11 @@
       <c r="C2">
         <v>91.84</v>
       </c>
-      <c r="D2" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>45756756</v>
       </c>
@@ -3230,11 +3195,11 @@
       <c r="C3">
         <v>473.19</v>
       </c>
-      <c r="D3" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>38004452</v>
       </c>
@@ -3244,11 +3209,11 @@
       <c r="C4">
         <v>44.71</v>
       </c>
-      <c r="D4" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>44777680</v>
       </c>
@@ -3258,11 +3223,11 @@
       <c r="C5">
         <v>87.18</v>
       </c>
-      <c r="D5" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>38004455</v>
       </c>
@@ -3272,11 +3237,11 @@
       <c r="C6">
         <v>127.85</v>
       </c>
-      <c r="D6" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>38004446</v>
       </c>
@@ -3286,11 +3251,11 @@
       <c r="C7">
         <v>68.78</v>
       </c>
-      <c r="D7" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>38004458</v>
       </c>
@@ -3300,11 +3265,11 @@
       <c r="C8">
         <v>75.349999999999994</v>
       </c>
-      <c r="D8" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>38004505</v>
       </c>
@@ -3314,11 +3279,11 @@
       <c r="C9">
         <v>93.3</v>
       </c>
-      <c r="D9" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>38004461</v>
       </c>
@@ -3328,11 +3293,11 @@
       <c r="C10">
         <v>59.64</v>
       </c>
-      <c r="D10" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>38004465</v>
       </c>
@@ -3342,11 +3307,11 @@
       <c r="C11">
         <v>58.18</v>
       </c>
-      <c r="D11" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>38004449</v>
       </c>
@@ -3356,11 +3321,11 @@
       <c r="C12">
         <v>50.37</v>
       </c>
-      <c r="D12" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>38004477</v>
       </c>
@@ -3370,11 +3335,11 @@
       <c r="C13">
         <v>69.959999999999994</v>
       </c>
-      <c r="D13" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>38004469</v>
       </c>
@@ -3384,11 +3349,11 @@
       <c r="C14">
         <v>93.3</v>
       </c>
-      <c r="D14" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>44777741</v>
       </c>
@@ -3398,11 +3363,11 @@
       <c r="C15">
         <v>392.72</v>
       </c>
-      <c r="D15" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>38004472</v>
       </c>
@@ -3412,11 +3377,11 @@
       <c r="C16">
         <v>80.540000000000006</v>
       </c>
-      <c r="D16" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>38004491</v>
       </c>
@@ -3426,11 +3391,11 @@
       <c r="C17">
         <v>78.69</v>
       </c>
-      <c r="D17" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>38004474</v>
       </c>
@@ -3440,7 +3405,7 @@
       <c r="C18">
         <v>55.35</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18">
         <v>1</v>
       </c>
     </row>
@@ -3456,32 +3421,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF16AF3-5FE4-4E51-A040-3A1DA41F7069}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D19"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="25.5703125" customWidth="1"/>
+    <col min="1" max="3" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>201</v>
       </c>
       <c r="B1" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>38004451</v>
       </c>
@@ -3491,11 +3456,11 @@
       <c r="C2">
         <v>47.73</v>
       </c>
-      <c r="D2" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>38004452</v>
       </c>
@@ -3505,11 +3470,11 @@
       <c r="C3">
         <v>47.5</v>
       </c>
-      <c r="D3" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>44777680</v>
       </c>
@@ -3519,11 +3484,11 @@
       <c r="C4">
         <v>45</v>
       </c>
-      <c r="D4" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>38004455</v>
       </c>
@@ -3533,11 +3498,11 @@
       <c r="C5">
         <v>26.5</v>
       </c>
-      <c r="D5" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>38004446</v>
       </c>
@@ -3547,11 +3512,11 @@
       <c r="C6">
         <v>26.5</v>
       </c>
-      <c r="D6" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>38003902</v>
       </c>
@@ -3561,11 +3526,11 @@
       <c r="C7">
         <v>47.5</v>
       </c>
-      <c r="D7" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>38004458</v>
       </c>
@@ -3575,11 +3540,11 @@
       <c r="C8">
         <v>42.5</v>
       </c>
-      <c r="D8" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>38004463</v>
       </c>
@@ -3589,22 +3554,22 @@
       <c r="C9">
         <v>26.5</v>
       </c>
-      <c r="D9" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>38004477</v>
       </c>
       <c r="B10" t="s">
         <v>211</v>
       </c>
-      <c r="D10" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>38004469</v>
       </c>
@@ -3614,11 +3579,11 @@
       <c r="C11">
         <v>42.5</v>
       </c>
-      <c r="D11" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>38004472</v>
       </c>
@@ -3628,11 +3593,11 @@
       <c r="C12">
         <v>26.5</v>
       </c>
-      <c r="D12" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>38004491</v>
       </c>
@@ -3642,24 +3607,9 @@
       <c r="C13">
         <v>26.5</v>
       </c>
-      <c r="D13" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D14" s="13"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D15" s="13"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D16" s="13"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="13"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="13"/>
+      <c r="D13">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C12" xr:uid="{9AF16AF3-5FE4-4E51-A040-3A1DA41F7069}">
@@ -3673,150 +3623,190 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB2F280-3407-4F3E-A693-5661C6A1B47C}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" s="8">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>38004446</v>
+      </c>
+      <c r="B2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="8">
         <v>61.636146898938016</v>
       </c>
-      <c r="C2" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B3" s="8">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>38004385</v>
+      </c>
+      <c r="B3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="8">
         <v>25.542907723884223</v>
       </c>
-      <c r="C3" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B4" s="8">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>38004477</v>
+      </c>
+      <c r="B4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="8">
         <v>61.636146898938016</v>
       </c>
-      <c r="C4" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B5" s="8">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>38004510</v>
+      </c>
+      <c r="B5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="8">
         <v>99.950508484764356</v>
       </c>
-      <c r="C5" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>226</v>
-      </c>
-      <c r="B6" s="8">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>38004482</v>
+      </c>
+      <c r="B6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="8">
         <v>40.646540117137505</v>
       </c>
-      <c r="C6" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>227</v>
-      </c>
-      <c r="B7" s="8">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>38004461</v>
+      </c>
+      <c r="B7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" s="8">
         <v>61.636146898938016</v>
       </c>
-      <c r="C7" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>228</v>
-      </c>
-      <c r="B8" s="8">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>43125856</v>
+      </c>
+      <c r="B8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" s="8">
         <v>69.965355939335041</v>
       </c>
-      <c r="C8" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B9" s="8">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>38004499</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8">
         <v>25.542907723884223</v>
       </c>
-      <c r="C9" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>230</v>
-      </c>
-      <c r="B10" s="8">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>38004452</v>
+      </c>
+      <c r="B10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10" s="8">
         <v>61.636146898938016</v>
       </c>
-      <c r="C10" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>231</v>
-      </c>
-      <c r="B11" s="8">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>38004474</v>
+      </c>
+      <c r="B11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" s="8">
         <v>61.636146898938016</v>
       </c>
-      <c r="C11" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>232</v>
-      </c>
-      <c r="B12" s="8">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>38004472</v>
+      </c>
+      <c r="B12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" s="8">
         <v>61.636146898938016</v>
       </c>
-      <c r="C12" s="15">
+      <c r="D12">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" display="https://athena.ohdsi.org/search-terms/terms/38004477" xr:uid="{C56FC18D-39B7-4218-AFA0-3B2F7E357D11}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3825,77 +3815,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D84C48B-4E2B-47EB-B4DF-D12897385EE8}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B1" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>262</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>9201</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>9202</v>
       </c>
       <c r="B4" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>9203</v>
       </c>
       <c r="B5" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>581476</v>
       </c>
       <c r="B6" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -3907,6 +3897,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E261632A9079424993A897DC15346D5B" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e142ea7856c1c779e772802f85df3c9d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1fd57a85-5f09-446c-9d29-22a13ed0863b" xmlns:ns3="47a2ec26-e196-46c3-886b-68c32d2bf91e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="08527c5e4e22af13f6da42aeeb5331bb" ns2:_="" ns3:_="">
     <xsd:import namespace="1fd57a85-5f09-446c-9d29-22a13ed0863b"/>
@@ -4155,16 +4154,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A041A22-800E-42F0-9103-7570B9474B4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDAB7EB0-42CF-45C9-9ECF-1747D13501DE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4181,12 +4179,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A041A22-800E-42F0-9103-7570B9474B4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/4_HealthEconomics/Inputs/provider_cost_inputs.xlsx
+++ b/4_HealthEconomics/Inputs/provider_cost_inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Federated Analysis - Post-menopausal fracture\R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/orms0952_ox_ac_uk/Documents/Documents/GitHub/RefractureStudy/4_HealthEconomics/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41567F39-FC66-49DD-B29B-88D4E827CAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A193161-AFDF-4AFC-93D5-E85BAE8E0418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="20832" windowHeight="16656" tabRatio="798" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9675" yWindow="2955" windowWidth="19230" windowHeight="11295" tabRatio="798" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="6" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="236">
   <si>
     <t>specialty_source_value</t>
   </si>
@@ -748,6 +748,9 @@
   </si>
   <si>
     <t>Dentist Anesthesiologist</t>
+  </si>
+  <si>
+    <t>Not assigned</t>
   </si>
 </sst>
 </file>
@@ -1156,15 +1159,15 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.54296875" style="6"/>
+    <col min="1" max="1" width="47.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="6"/>
     <col min="3" max="3" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.54296875" style="6"/>
+    <col min="4" max="16384" width="8.5703125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1175,7 +1178,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1186,7 +1189,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1197,7 +1200,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1209,7 +1212,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1217,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -1225,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -1233,7 +1236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
@@ -1245,7 +1248,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -1253,7 +1256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
@@ -1261,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
@@ -1272,7 +1275,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
@@ -1280,7 +1283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
@@ -1292,7 +1295,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -1300,7 +1303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
@@ -1308,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
@@ -1320,7 +1323,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>18</v>
       </c>
@@ -1328,7 +1331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
@@ -1339,7 +1342,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
@@ -1350,7 +1353,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
@@ -1358,7 +1361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>22</v>
       </c>
@@ -1370,7 +1373,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>23</v>
       </c>
@@ -1378,7 +1381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>24</v>
       </c>
@@ -1386,7 +1389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>25</v>
       </c>
@@ -1397,7 +1400,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>26</v>
       </c>
@@ -1409,7 +1412,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>27</v>
       </c>
@@ -1417,7 +1420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>28</v>
       </c>
@@ -1429,7 +1432,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>29</v>
       </c>
@@ -1437,7 +1440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>30</v>
       </c>
@@ -1445,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>31</v>
       </c>
@@ -1457,7 +1460,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>32</v>
       </c>
@@ -1469,7 +1472,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>33</v>
       </c>
@@ -1477,7 +1480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>34</v>
       </c>
@@ -1488,7 +1491,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>35</v>
       </c>
@@ -1496,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>36</v>
       </c>
@@ -1504,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>37</v>
       </c>
@@ -1512,7 +1515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>38</v>
       </c>
@@ -1520,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>39</v>
       </c>
@@ -1528,7 +1531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>40</v>
       </c>
@@ -1536,7 +1539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>41</v>
       </c>
@@ -1547,7 +1550,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>42</v>
       </c>
@@ -1555,7 +1558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>43</v>
       </c>
@@ -1563,7 +1566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>44</v>
       </c>
@@ -1575,7 +1578,7 @@
         <v>26.74540816326531</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>45</v>
       </c>
@@ -1587,7 +1590,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>46</v>
       </c>
@@ -1595,7 +1598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>47</v>
       </c>
@@ -1607,7 +1610,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>48</v>
       </c>
@@ -1619,7 +1622,7 @@
         <v>26.74540816326531</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>49</v>
       </c>
@@ -1627,7 +1630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>1</v>
       </c>
@@ -1639,7 +1642,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>50</v>
       </c>
@@ -1647,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>51</v>
       </c>
@@ -1655,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>52</v>
       </c>
@@ -1663,7 +1666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>53</v>
       </c>
@@ -1674,7 +1677,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>54</v>
       </c>
@@ -1686,7 +1689,7 @@
         <v>30.741666666666667</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>55</v>
       </c>
@@ -1697,7 +1700,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>56</v>
       </c>
@@ -1709,7 +1712,7 @@
         <v>30.741666666666667</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>57</v>
       </c>
@@ -1721,7 +1724,7 @@
         <v>30.741666666666667</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>58</v>
       </c>
@@ -1729,7 +1732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>59</v>
       </c>
@@ -1741,7 +1744,7 @@
         <v>30.741666666666667</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>60</v>
       </c>
@@ -1749,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>61</v>
       </c>
@@ -1757,7 +1760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>62</v>
       </c>
@@ -1765,7 +1768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>63</v>
       </c>
@@ -1777,7 +1780,7 @@
         <v>30.741666666666667</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>64</v>
       </c>
@@ -1788,7 +1791,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>65</v>
       </c>
@@ -1799,7 +1802,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>66</v>
       </c>
@@ -1807,12 +1810,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B67" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>67</v>
       </c>
@@ -1820,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>68</v>
       </c>
@@ -1828,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>69</v>
       </c>
@@ -1836,7 +1839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>70</v>
       </c>
@@ -1848,7 +1851,7 @@
         <v>30.741666666666667</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>71</v>
       </c>
@@ -1860,7 +1863,7 @@
         <v>26.74540816326531</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>72</v>
       </c>
@@ -1871,7 +1874,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>73</v>
       </c>
@@ -1879,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>74</v>
       </c>
@@ -1887,7 +1890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>75</v>
       </c>
@@ -1895,7 +1898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>76</v>
       </c>
@@ -1903,7 +1906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>77</v>
       </c>
@@ -1914,7 +1917,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>78</v>
       </c>
@@ -1922,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>79</v>
       </c>
@@ -1930,7 +1933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>80</v>
       </c>
@@ -1941,7 +1944,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>81</v>
       </c>
@@ -1949,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>82</v>
       </c>
@@ -1960,7 +1963,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>83</v>
       </c>
@@ -1971,7 +1974,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>84</v>
       </c>
@@ -1983,7 +1986,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>85</v>
       </c>
@@ -1995,7 +1998,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>86</v>
       </c>
@@ -2006,7 +2009,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>87</v>
       </c>
@@ -2018,7 +2021,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>2</v>
       </c>
@@ -2029,7 +2032,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>88</v>
       </c>
@@ -2037,7 +2040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>89</v>
       </c>
@@ -2048,7 +2051,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>90</v>
       </c>
@@ -2056,7 +2059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>91</v>
       </c>
@@ -2067,7 +2070,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>92</v>
       </c>
@@ -2078,7 +2081,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>93</v>
       </c>
@@ -2086,7 +2089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>94</v>
       </c>
@@ -2097,7 +2100,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>95</v>
       </c>
@@ -2105,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>96</v>
       </c>
@@ -2117,7 +2120,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>97</v>
       </c>
@@ -2128,7 +2131,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>98</v>
       </c>
@@ -2140,7 +2143,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>99</v>
       </c>
@@ -2151,7 +2154,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>100</v>
       </c>
@@ -2159,7 +2162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>101</v>
       </c>
@@ -2170,7 +2173,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>102</v>
       </c>
@@ -2181,7 +2184,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>103</v>
       </c>
@@ -2192,7 +2195,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>104</v>
       </c>
@@ -2200,7 +2203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>105</v>
       </c>
@@ -2212,7 +2215,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>106</v>
       </c>
@@ -2220,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>107</v>
       </c>
@@ -2228,7 +2231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>108</v>
       </c>
@@ -2236,7 +2239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>109</v>
       </c>
@@ -2247,7 +2250,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>110</v>
       </c>
@@ -2258,7 +2261,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>111</v>
       </c>
@@ -2266,7 +2269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>112</v>
       </c>
@@ -2274,7 +2277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>113</v>
       </c>
@@ -2282,7 +2285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>114</v>
       </c>
@@ -2290,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>115</v>
       </c>
@@ -2298,7 +2301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>116</v>
       </c>
@@ -2310,7 +2313,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>117</v>
       </c>
@@ -2321,7 +2324,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>118</v>
       </c>
@@ -2333,7 +2336,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>119</v>
       </c>
@@ -2344,7 +2347,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>120</v>
       </c>
@@ -2352,7 +2355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>121</v>
       </c>
@@ -2364,7 +2367,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>122</v>
       </c>
@@ -2375,7 +2378,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>123</v>
       </c>
@@ -2386,7 +2389,7 @@
         <v>107.26</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>124</v>
       </c>
@@ -2394,7 +2397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>125</v>
       </c>
@@ -2406,7 +2409,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>126</v>
       </c>
@@ -2417,7 +2420,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>127</v>
       </c>
@@ -2428,7 +2431,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>128</v>
       </c>
@@ -2440,7 +2443,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>129</v>
       </c>
@@ -2448,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>130</v>
       </c>
@@ -2456,7 +2459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>131</v>
       </c>
@@ -2467,7 +2470,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>132</v>
       </c>
@@ -2475,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>133</v>
       </c>
@@ -2487,7 +2490,7 @@
         <v>30.741666666666667</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>134</v>
       </c>
@@ -2499,7 +2502,7 @@
         <v>35.728813559322035</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>135</v>
       </c>
@@ -2507,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>136</v>
       </c>
@@ -2518,7 +2521,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>137</v>
       </c>
@@ -2526,7 +2529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>138</v>
       </c>
@@ -2534,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>139</v>
       </c>
@@ -2542,7 +2545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>140</v>
       </c>
@@ -2550,7 +2553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>141</v>
       </c>
@@ -2558,7 +2561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>142</v>
       </c>
@@ -2570,7 +2573,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>143</v>
       </c>
@@ -2581,7 +2584,7 @@
         <v>156.82</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>144</v>
       </c>
@@ -2589,7 +2592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>145</v>
       </c>
@@ -2600,7 +2603,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>146</v>
       </c>
@@ -2608,7 +2611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>147</v>
       </c>
@@ -2616,7 +2619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>148</v>
       </c>
@@ -2624,7 +2627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>149</v>
       </c>
@@ -2635,7 +2638,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>150</v>
       </c>
@@ -2643,7 +2646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>151</v>
       </c>
@@ -2654,7 +2657,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>152</v>
       </c>
@@ -2665,7 +2668,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>153</v>
       </c>
@@ -2676,7 +2679,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>154</v>
       </c>
@@ -2687,7 +2690,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>155</v>
       </c>
@@ -2698,7 +2701,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>156</v>
       </c>
@@ -2706,7 +2709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>157</v>
       </c>
@@ -2717,7 +2720,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>158</v>
       </c>
@@ -2728,7 +2731,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>159</v>
       </c>
@@ -2736,7 +2739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>160</v>
       </c>
@@ -2744,7 +2747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>161</v>
       </c>
@@ -2756,7 +2759,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>162</v>
       </c>
@@ -2767,7 +2770,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>163</v>
       </c>
@@ -2779,7 +2782,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>164</v>
       </c>
@@ -2787,7 +2790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
         <v>165</v>
       </c>
@@ -2795,7 +2798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>166</v>
       </c>
@@ -2803,7 +2806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
         <v>167</v>
       </c>
@@ -2811,7 +2814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>168</v>
       </c>
@@ -2823,7 +2826,7 @@
         <v>26.74540816326531</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>169</v>
       </c>
@@ -2835,7 +2838,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
         <v>170</v>
       </c>
@@ -2843,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>171</v>
       </c>
@@ -2851,7 +2854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
         <v>172</v>
       </c>
@@ -2859,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>173</v>
       </c>
@@ -2870,7 +2873,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>174</v>
       </c>
@@ -2878,7 +2881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>175</v>
       </c>
@@ -2886,7 +2889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>176</v>
       </c>
@@ -2894,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
         <v>177</v>
       </c>
@@ -2905,7 +2908,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>178</v>
       </c>
@@ -2913,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>179</v>
       </c>
@@ -2924,7 +2927,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>180</v>
       </c>
@@ -2935,7 +2938,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
         <v>181</v>
       </c>
@@ -2946,7 +2949,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>182</v>
       </c>
@@ -2954,7 +2957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
         <v>183</v>
       </c>
@@ -2965,7 +2968,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>184</v>
       </c>
@@ -2973,7 +2976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>185</v>
       </c>
@@ -2984,7 +2987,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>186</v>
       </c>
@@ -2996,7 +2999,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>187</v>
       </c>
@@ -3004,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>188</v>
       </c>
@@ -3012,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>189</v>
       </c>
@@ -3020,7 +3023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
         <v>190</v>
       </c>
@@ -3031,7 +3034,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
         <v>191</v>
       </c>
@@ -3043,7 +3046,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>192</v>
       </c>
@@ -3051,7 +3054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
         <v>193</v>
       </c>
@@ -3062,7 +3065,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
         <v>194</v>
       </c>
@@ -3070,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
         <v>195</v>
       </c>
@@ -3078,7 +3081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>196</v>
       </c>
@@ -3086,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
         <v>197</v>
       </c>
@@ -3111,12 +3114,12 @@
       <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3127,7 +3130,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>200</v>
       </c>
@@ -3151,13 +3154,13 @@
       <selection activeCell="D1" sqref="D1:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>201</v>
       </c>
@@ -3171,7 +3174,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>38004451</v>
       </c>
@@ -3185,7 +3188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>45756756</v>
       </c>
@@ -3199,7 +3202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>38004452</v>
       </c>
@@ -3213,7 +3216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>44777680</v>
       </c>
@@ -3227,7 +3230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>38004455</v>
       </c>
@@ -3241,7 +3244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>38004446</v>
       </c>
@@ -3255,7 +3258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>38004458</v>
       </c>
@@ -3269,7 +3272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>38004505</v>
       </c>
@@ -3283,7 +3286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>38004461</v>
       </c>
@@ -3297,7 +3300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>38004465</v>
       </c>
@@ -3311,7 +3314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>38004449</v>
       </c>
@@ -3325,7 +3328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>38004477</v>
       </c>
@@ -3339,7 +3342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>38004469</v>
       </c>
@@ -3353,7 +3356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>44777741</v>
       </c>
@@ -3367,7 +3370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>38004472</v>
       </c>
@@ -3381,7 +3384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>38004491</v>
       </c>
@@ -3395,7 +3398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>38004474</v>
       </c>
@@ -3421,18 +3424,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF16AF3-5FE4-4E51-A040-3A1DA41F7069}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="25.54296875" customWidth="1"/>
+    <col min="1" max="3" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>201</v>
       </c>
@@ -3446,7 +3449,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>38004451</v>
       </c>
@@ -3460,7 +3463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>38004452</v>
       </c>
@@ -3474,7 +3477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>44777680</v>
       </c>
@@ -3488,7 +3491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>38004455</v>
       </c>
@@ -3502,7 +3505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>38004446</v>
       </c>
@@ -3516,7 +3519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>38003902</v>
       </c>
@@ -3530,7 +3533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>38004458</v>
       </c>
@@ -3544,7 +3547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>38004463</v>
       </c>
@@ -3558,18 +3561,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>38004477</v>
       </c>
       <c r="B10" t="s">
         <v>211</v>
       </c>
+      <c r="C10">
+        <v>26.5</v>
+      </c>
       <c r="D10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>38004469</v>
       </c>
@@ -3583,7 +3589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>38004472</v>
       </c>
@@ -3597,7 +3603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>38004491</v>
       </c>
@@ -3608,6 +3614,20 @@
         <v>26.5</v>
       </c>
       <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>235</v>
+      </c>
+      <c r="C14" s="8">
+        <v>36.839090909090913</v>
+      </c>
+      <c r="D14">
         <v>1</v>
       </c>
     </row>
@@ -3623,19 +3643,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB2F280-3407-4F3E-A693-5661C6A1B47C}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.1796875" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>201</v>
       </c>
@@ -3649,7 +3669,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>38004446</v>
       </c>
@@ -3663,7 +3683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>38004385</v>
       </c>
@@ -3677,7 +3697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>38004477</v>
       </c>
@@ -3691,7 +3711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>38004510</v>
       </c>
@@ -3705,7 +3725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>38004482</v>
       </c>
@@ -3719,7 +3739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>38004461</v>
       </c>
@@ -3733,7 +3753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>43125856</v>
       </c>
@@ -3747,7 +3767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>38004499</v>
       </c>
@@ -3761,7 +3781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>38004452</v>
       </c>
@@ -3775,7 +3795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>38004474</v>
       </c>
@@ -3789,7 +3809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>38004472</v>
       </c>
@@ -3800,6 +3820,20 @@
         <v>61.636146898938016</v>
       </c>
       <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C13" s="8">
+        <v>57.405918307512138</v>
+      </c>
+      <c r="D13">
         <v>1</v>
       </c>
     </row>
@@ -3819,13 +3853,13 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.7265625" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>223</v>
       </c>
@@ -3836,7 +3870,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>262</v>
       </c>
@@ -3847,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9201</v>
       </c>
@@ -3858,7 +3892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9202</v>
       </c>
@@ -3869,7 +3903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9203</v>
       </c>
@@ -3880,7 +3914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>581476</v>
       </c>
@@ -3897,15 +3931,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E261632A9079424993A897DC15346D5B" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e142ea7856c1c779e772802f85df3c9d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1fd57a85-5f09-446c-9d29-22a13ed0863b" xmlns:ns3="47a2ec26-e196-46c3-886b-68c32d2bf91e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="08527c5e4e22af13f6da42aeeb5331bb" ns2:_="" ns3:_="">
     <xsd:import namespace="1fd57a85-5f09-446c-9d29-22a13ed0863b"/>
@@ -4154,15 +4179,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A041A22-800E-42F0-9103-7570B9474B4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDAB7EB0-42CF-45C9-9ECF-1747D13501DE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4179,4 +4205,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A041A22-800E-42F0-9103-7570B9474B4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/4_HealthEconomics/Inputs/provider_cost_inputs.xlsx
+++ b/4_HealthEconomics/Inputs/provider_cost_inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/orms0952_ox_ac_uk/Documents/Documents/GitHub/RefractureStudy/4_HealthEconomics/Inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xihangc\Documents\GitHub\RefractureStudy\4_HealthEconomics\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A193161-AFDF-4AFC-93D5-E85BAE8E0418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FE7250-90DC-4A03-824C-FBBE475A4DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9675" yWindow="2955" windowWidth="19230" windowHeight="11295" tabRatio="798" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="798" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="6" r:id="rId1"/>
@@ -645,9 +645,6 @@
     <t>unit_cost</t>
   </si>
   <si>
-    <t>General practitioner</t>
-  </si>
-  <si>
     <t>specialty_concept_id</t>
   </si>
   <si>
@@ -751,6 +748,9 @@
   </si>
   <si>
     <t>Not assigned</t>
+  </si>
+  <si>
+    <t>General Practitioner</t>
   </si>
 </sst>
 </file>
@@ -1159,15 +1159,15 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="6"/>
+    <col min="1" max="1" width="47.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" style="6"/>
     <col min="3" max="3" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.5703125" style="6"/>
+    <col min="4" max="16384" width="8.5546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>18</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>22</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>23</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>24</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>25</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>26</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>27</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>28</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>29</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>30</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>31</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>32</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>33</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>34</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>35</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>36</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>37</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>38</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>39</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>40</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>41</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>42</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>43</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>44</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>26.74540816326531</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>45</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>46</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>47</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>48</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>26.74540816326531</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>49</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>1</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>50</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>51</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>52</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>53</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>54</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>30.741666666666667</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>55</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>56</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>30.741666666666667</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>57</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>30.741666666666667</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>58</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>59</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>30.741666666666667</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>60</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>61</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>62</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>63</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>30.741666666666667</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>64</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>65</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>66</v>
       </c>
@@ -1810,12 +1810,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B67" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>67</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>68</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>69</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>70</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>30.741666666666667</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>71</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>26.74540816326531</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>72</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>73</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>74</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>75</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>76</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>77</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>78</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>79</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>80</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>81</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>82</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>83</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>84</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>85</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>86</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>87</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>2</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>88</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>89</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>90</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>91</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>92</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>93</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>94</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>95</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>96</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>97</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>98</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>99</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>100</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>101</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>102</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>103</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>104</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>105</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>106</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>107</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
         <v>108</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>109</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>110</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
         <v>111</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>112</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>113</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>114</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>115</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>116</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>117</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>118</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>119</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>120</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
         <v>121</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>122</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>123</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>107.26</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>124</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>125</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>126</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
         <v>127</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
         <v>128</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
         <v>129</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>130</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>131</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>132</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>133</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>30.741666666666667</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>134</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>35.728813559322035</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
         <v>135</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
         <v>136</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
         <v>137</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
         <v>138</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
         <v>139</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
         <v>140</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
         <v>141</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>142</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
         <v>143</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>156.82</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
         <v>144</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
         <v>145</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
         <v>146</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
         <v>147</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
         <v>148</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
         <v>149</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>150</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
         <v>151</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
         <v>152</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
         <v>153</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
         <v>154</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
         <v>155</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
         <v>156</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
         <v>157</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
         <v>158</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="6" t="s">
         <v>159</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
         <v>160</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="6" t="s">
         <v>161</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
         <v>162</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
         <v>163</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
         <v>164</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
         <v>165</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>166</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="6" t="s">
         <v>167</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
         <v>168</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>26.74540816326531</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
         <v>169</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
         <v>170</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
         <v>171</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
         <v>172</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>173</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>174</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
         <v>175</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
         <v>176</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
         <v>177</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
         <v>178</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
         <v>179</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
         <v>180</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
         <v>181</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
         <v>182</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
         <v>183</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
         <v>184</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
         <v>185</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
         <v>186</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
         <v>187</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
         <v>188</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
         <v>189</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
         <v>190</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
         <v>191</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>19.196153846153848</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
         <v>192</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
         <v>193</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
         <v>194</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
         <v>195</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
         <v>196</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
         <v>197</v>
       </c>
@@ -3110,16 +3110,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81E8A92-6D3F-40CF-BE17-D8FB3F4C05C0}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3130,9 +3130,9 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="B2" s="8">
         <v>16.526613843295188</v>
@@ -3154,18 +3154,18 @@
       <selection activeCell="D1" sqref="D1:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>199</v>
@@ -3174,12 +3174,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>38004451</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C2">
         <v>91.84</v>
@@ -3188,12 +3188,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>45756756</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C3">
         <v>473.19</v>
@@ -3202,12 +3202,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>38004452</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C4">
         <v>44.71</v>
@@ -3216,12 +3216,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>44777680</v>
       </c>
       <c r="B5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C5">
         <v>87.18</v>
@@ -3230,12 +3230,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>38004455</v>
       </c>
       <c r="B6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C6">
         <v>127.85</v>
@@ -3244,12 +3244,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>38004446</v>
       </c>
       <c r="B7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C7">
         <v>68.78</v>
@@ -3258,12 +3258,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>38004458</v>
       </c>
       <c r="B8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C8">
         <v>75.349999999999994</v>
@@ -3272,12 +3272,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>38004505</v>
       </c>
       <c r="B9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9">
         <v>93.3</v>
@@ -3286,12 +3286,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>38004461</v>
       </c>
       <c r="B10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C10">
         <v>59.64</v>
@@ -3300,12 +3300,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>38004465</v>
       </c>
       <c r="B11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11">
         <v>58.18</v>
@@ -3314,12 +3314,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>38004449</v>
       </c>
       <c r="B12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C12">
         <v>50.37</v>
@@ -3328,12 +3328,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>38004477</v>
       </c>
       <c r="B13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C13">
         <v>69.959999999999994</v>
@@ -3342,12 +3342,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>38004469</v>
       </c>
       <c r="B14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C14">
         <v>93.3</v>
@@ -3356,12 +3356,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>44777741</v>
       </c>
       <c r="B15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C15">
         <v>392.72</v>
@@ -3370,12 +3370,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>38004472</v>
       </c>
       <c r="B16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C16">
         <v>80.540000000000006</v>
@@ -3384,12 +3384,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>38004491</v>
       </c>
       <c r="B17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C17">
         <v>78.69</v>
@@ -3398,12 +3398,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>38004474</v>
       </c>
       <c r="B18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C18">
         <v>55.35</v>
@@ -3430,17 +3430,17 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="25.5703125" customWidth="1"/>
+    <col min="1" max="3" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>199</v>
@@ -3449,12 +3449,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>38004451</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C2">
         <v>47.73</v>
@@ -3463,12 +3463,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>38004452</v>
       </c>
       <c r="B3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C3">
         <v>47.5</v>
@@ -3477,12 +3477,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>44777680</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C4">
         <v>45</v>
@@ -3491,12 +3491,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>38004455</v>
       </c>
       <c r="B5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C5">
         <v>26.5</v>
@@ -3505,12 +3505,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>38004446</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C6">
         <v>26.5</v>
@@ -3519,12 +3519,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>38003902</v>
       </c>
       <c r="B7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C7">
         <v>47.5</v>
@@ -3533,12 +3533,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>38004458</v>
       </c>
       <c r="B8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C8">
         <v>42.5</v>
@@ -3547,12 +3547,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>38004463</v>
       </c>
       <c r="B9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9">
         <v>26.5</v>
@@ -3561,12 +3561,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>38004477</v>
       </c>
       <c r="B10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C10">
         <v>26.5</v>
@@ -3575,12 +3575,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>38004469</v>
       </c>
       <c r="B11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C11">
         <v>42.5</v>
@@ -3589,12 +3589,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>38004472</v>
       </c>
       <c r="B12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C12">
         <v>26.5</v>
@@ -3603,12 +3603,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>38004491</v>
       </c>
       <c r="B13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C13">
         <v>26.5</v>
@@ -3617,12 +3617,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" s="8">
         <v>36.839090909090913</v>
@@ -3645,22 +3645,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB2F280-3407-4F3E-A693-5661C6A1B47C}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>199</v>
@@ -3669,12 +3669,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>38004446</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C2" s="8">
         <v>61.636146898938016</v>
@@ -3683,12 +3683,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>38004385</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C3" s="8">
         <v>25.542907723884223</v>
@@ -3697,12 +3697,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>38004477</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C4" s="8">
         <v>61.636146898938016</v>
@@ -3711,12 +3711,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>38004510</v>
       </c>
       <c r="B5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C5" s="8">
         <v>99.950508484764356</v>
@@ -3725,12 +3725,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>38004482</v>
       </c>
       <c r="B6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C6" s="8">
         <v>40.646540117137505</v>
@@ -3739,12 +3739,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>38004461</v>
       </c>
       <c r="B7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C7" s="8">
         <v>61.636146898938016</v>
@@ -3753,12 +3753,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>43125856</v>
       </c>
       <c r="B8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C8" s="8">
         <v>69.965355939335041</v>
@@ -3767,7 +3767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>38004499</v>
       </c>
@@ -3781,12 +3781,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>38004452</v>
       </c>
       <c r="B10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C10" s="8">
         <v>61.636146898938016</v>
@@ -3795,12 +3795,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>38004474</v>
       </c>
       <c r="B11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C11" s="8">
         <v>61.636146898938016</v>
@@ -3809,12 +3809,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>38004472</v>
       </c>
       <c r="B12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C12" s="8">
         <v>61.636146898938016</v>
@@ -3823,12 +3823,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C13" s="8">
         <v>57.405918307512138</v>
@@ -3853,73 +3853,73 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>262</v>
       </c>
       <c r="B2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>9201</v>
       </c>
       <c r="B3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>9202</v>
       </c>
       <c r="B4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>9203</v>
       </c>
       <c r="B5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>581476</v>
       </c>
       <c r="B6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -3931,6 +3931,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E261632A9079424993A897DC15346D5B" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e142ea7856c1c779e772802f85df3c9d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1fd57a85-5f09-446c-9d29-22a13ed0863b" xmlns:ns3="47a2ec26-e196-46c3-886b-68c32d2bf91e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="08527c5e4e22af13f6da42aeeb5331bb" ns2:_="" ns3:_="">
     <xsd:import namespace="1fd57a85-5f09-446c-9d29-22a13ed0863b"/>
@@ -4179,16 +4188,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A041A22-800E-42F0-9103-7570B9474B4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDAB7EB0-42CF-45C9-9ECF-1747D13501DE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4205,12 +4213,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A041A22-800E-42F0-9103-7570B9474B4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>